--- a/allTest_allOrg.xlsx
+++ b/allTest_allOrg.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="90">
   <si>
     <t>tableName</t>
   </si>
@@ -139,88 +139,49 @@
     <t>DUPMOCNT</t>
   </si>
   <si>
-    <t>cclf_0_summ_stat</t>
-  </si>
-  <si>
-    <t>cclf_1_pt_a_clm_hdr</t>
-  </si>
-  <si>
-    <t>cclf_2_pt_a_clm_rev_ctr_det</t>
-  </si>
-  <si>
-    <t>cclf_3_pt_a_proc_cd</t>
-  </si>
-  <si>
-    <t>cclf_4_pt_a_diag_cd</t>
-  </si>
-  <si>
-    <t>cclf_5_pt_b_phys</t>
-  </si>
-  <si>
-    <t>cclf_6_pt_b_dme</t>
-  </si>
-  <si>
-    <t>cclf_7_pt_d</t>
-  </si>
-  <si>
-    <t>cclf_8_bene_demo</t>
-  </si>
-  <si>
-    <t>cclf_assgn_0_header</t>
-  </si>
-  <si>
-    <t>cclf_assgn_1_hcc</t>
-  </si>
-  <si>
-    <t>cclf_assgn_1_summ</t>
-  </si>
-  <si>
-    <t>cclf_assgn_2_tin</t>
-  </si>
-  <si>
-    <t>cclf_assgn_3_ccn</t>
-  </si>
-  <si>
-    <t>cclf_assgn_4_tin_npi</t>
-  </si>
-  <si>
-    <t>cclf_assgn_5_turnover</t>
-  </si>
-  <si>
-    <t>cclf_assgn_6_assgnbl</t>
-  </si>
-  <si>
-    <t>cclf_a_pt_a_be_demo</t>
-  </si>
-  <si>
-    <t>cclf_benchmark_1_detail</t>
-  </si>
-  <si>
-    <t>cclf_b_pt_b_be_demo</t>
-  </si>
-  <si>
-    <t>cclf_expu_0_header</t>
-  </si>
-  <si>
-    <t>cclf_expu_1_detail</t>
-  </si>
-  <si>
-    <t>cclf_expu_2_regional</t>
-  </si>
-  <si>
-    <t>cclf_expu_2_snf</t>
-  </si>
-  <si>
-    <t>cclf_expu_3_snf</t>
-  </si>
-  <si>
-    <t>cclf_ng_align</t>
-  </si>
-  <si>
-    <t>nh_network_model_0_hdr</t>
-  </si>
-  <si>
-    <t>2021-03</t>
+    <t>mdpcp_assgn_attribd</t>
+  </si>
+  <si>
+    <t>mdpcp_assgn_termd</t>
+  </si>
+  <si>
+    <t>mdpcp_bened</t>
+  </si>
+  <si>
+    <t>mdpcp_bened_month</t>
+  </si>
+  <si>
+    <t>mdpcp_bened_year</t>
+  </si>
+  <si>
+    <t>mdpcp_ptaclm</t>
+  </si>
+  <si>
+    <t>mdpcp_ptadgn</t>
+  </si>
+  <si>
+    <t>mdpcp_ptaprc</t>
+  </si>
+  <si>
+    <t>mdpcp_ptarev</t>
+  </si>
+  <si>
+    <t>mdpcp_ptbdme</t>
+  </si>
+  <si>
+    <t>mdpcp_ptbphy</t>
+  </si>
+  <si>
+    <t>mdpcp_ptd</t>
+  </si>
+  <si>
+    <t>mdpcp_stat</t>
+  </si>
+  <si>
+    <t>q-2021-3</t>
+  </si>
+  <si>
+    <t>q-2021-2</t>
   </si>
   <si>
     <t>MEASURE_ID</t>
@@ -1587,7 +1548,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1617,8 +1578,14 @@
       <c r="B2" t="s">
         <v>18</v>
       </c>
+      <c r="C2" s="2">
+        <v>44461</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
       <c r="E2">
-        <v>0</v>
+        <v>454893</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1628,8 +1595,14 @@
       <c r="B3" t="s">
         <v>18</v>
       </c>
+      <c r="C3" s="2">
+        <v>44461</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
       <c r="E3">
-        <v>0</v>
+        <v>19840</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1639,8 +1612,14 @@
       <c r="B4" t="s">
         <v>18</v>
       </c>
+      <c r="C4" s="2">
+        <v>44461</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
       <c r="E4">
-        <v>0</v>
+        <v>346699</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1650,8 +1629,14 @@
       <c r="B5" t="s">
         <v>18</v>
       </c>
+      <c r="C5" s="2">
+        <v>44461</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
       <c r="E5">
-        <v>0</v>
+        <v>14124240</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1661,8 +1646,14 @@
       <c r="B6" t="s">
         <v>18</v>
       </c>
+      <c r="C6" s="2">
+        <v>44461</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
       <c r="E6">
-        <v>0</v>
+        <v>1305944</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1672,8 +1663,14 @@
       <c r="B7" t="s">
         <v>18</v>
       </c>
+      <c r="C7" s="2">
+        <v>44460</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
       <c r="E7">
-        <v>0</v>
+        <v>2690350</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1683,8 +1680,14 @@
       <c r="B8" t="s">
         <v>18</v>
       </c>
+      <c r="C8" s="2">
+        <v>44460</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
       <c r="E8">
-        <v>0</v>
+        <v>14957229</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1694,8 +1697,14 @@
       <c r="B9" t="s">
         <v>18</v>
       </c>
+      <c r="C9" s="2">
+        <v>44460</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
       <c r="E9">
-        <v>0</v>
+        <v>307631</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1705,8 +1714,14 @@
       <c r="B10" t="s">
         <v>18</v>
       </c>
+      <c r="C10" s="2">
+        <v>44460</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
       <c r="E10">
-        <v>0</v>
+        <v>21033630</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1716,8 +1731,14 @@
       <c r="B11" t="s">
         <v>18</v>
       </c>
+      <c r="C11" s="2">
+        <v>44460</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
       <c r="E11">
-        <v>0</v>
+        <v>2727547</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1727,8 +1748,14 @@
       <c r="B12" t="s">
         <v>18</v>
       </c>
+      <c r="C12" s="2">
+        <v>44462</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
       <c r="E12">
-        <v>0</v>
+        <v>52755244</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1738,8 +1765,14 @@
       <c r="B13" t="s">
         <v>18</v>
       </c>
+      <c r="C13" s="2">
+        <v>44460</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
       <c r="E13">
-        <v>0</v>
+        <v>18006332</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1749,168 +1782,14 @@
       <c r="B14" t="s">
         <v>18</v>
       </c>
+      <c r="C14" s="2">
+        <v>44460</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
       <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="2">
-        <v>44260</v>
-      </c>
-      <c r="D28" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
+        <v>3260</v>
       </c>
     </row>
   </sheetData>
@@ -1920,7 +1799,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1965,17 +1844,29 @@
       <c r="B2" t="s">
         <v>18</v>
       </c>
+      <c r="C2" s="2">
+        <v>44461</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
       <c r="E2">
-        <v>0</v>
+        <v>454893</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
       </c>
+      <c r="G2" s="2">
+        <v>44349</v>
+      </c>
+      <c r="H2" t="s">
+        <v>53</v>
+      </c>
       <c r="I2">
-        <v>0</v>
+        <v>366693</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>88200</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1985,17 +1876,29 @@
       <c r="B3" t="s">
         <v>18</v>
       </c>
+      <c r="C3" s="2">
+        <v>44461</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
       <c r="E3">
-        <v>0</v>
+        <v>19840</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
       </c>
+      <c r="G3" s="2">
+        <v>44349</v>
+      </c>
+      <c r="H3" t="s">
+        <v>53</v>
+      </c>
       <c r="I3">
-        <v>0</v>
+        <v>15003</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4837</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2005,17 +1908,29 @@
       <c r="B4" t="s">
         <v>18</v>
       </c>
+      <c r="C4" s="2">
+        <v>44461</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
       <c r="E4">
-        <v>0</v>
+        <v>346699</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
+      <c r="G4" s="2">
+        <v>44351</v>
+      </c>
+      <c r="H4" t="s">
+        <v>53</v>
+      </c>
       <c r="I4">
-        <v>0</v>
+        <v>295413</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>51286</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2025,17 +1940,29 @@
       <c r="B5" t="s">
         <v>18</v>
       </c>
+      <c r="C5" s="2">
+        <v>44461</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
       <c r="E5">
-        <v>0</v>
+        <v>14124240</v>
       </c>
       <c r="F5" t="s">
         <v>29</v>
       </c>
+      <c r="G5" s="2">
+        <v>44351</v>
+      </c>
+      <c r="H5" t="s">
+        <v>53</v>
+      </c>
       <c r="I5">
-        <v>0</v>
+        <v>12243708</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1880532</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2045,17 +1972,29 @@
       <c r="B6" t="s">
         <v>18</v>
       </c>
+      <c r="C6" s="2">
+        <v>44461</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
       <c r="E6">
-        <v>0</v>
+        <v>1305944</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
       </c>
+      <c r="G6" s="2">
+        <v>44351</v>
+      </c>
+      <c r="H6" t="s">
+        <v>53</v>
+      </c>
       <c r="I6">
-        <v>0</v>
+        <v>1104604</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>201340</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2065,17 +2004,29 @@
       <c r="B7" t="s">
         <v>18</v>
       </c>
+      <c r="C7" s="2">
+        <v>44460</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
       <c r="E7">
-        <v>0</v>
+        <v>2690350</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
       </c>
+      <c r="G7" s="2">
+        <v>44350</v>
+      </c>
+      <c r="H7" t="s">
+        <v>53</v>
+      </c>
       <c r="I7">
-        <v>0</v>
+        <v>2297612</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>392738</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2085,17 +2036,29 @@
       <c r="B8" t="s">
         <v>18</v>
       </c>
+      <c r="C8" s="2">
+        <v>44460</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
       <c r="E8">
-        <v>0</v>
+        <v>14957229</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
       </c>
+      <c r="G8" s="2">
+        <v>44350</v>
+      </c>
+      <c r="H8" t="s">
+        <v>53</v>
+      </c>
       <c r="I8">
-        <v>0</v>
+        <v>12804554</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>2152675</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2105,17 +2068,29 @@
       <c r="B9" t="s">
         <v>18</v>
       </c>
+      <c r="C9" s="2">
+        <v>44460</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
       <c r="E9">
-        <v>0</v>
+        <v>307631</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
       </c>
+      <c r="G9" s="2">
+        <v>44350</v>
+      </c>
+      <c r="H9" t="s">
+        <v>53</v>
+      </c>
       <c r="I9">
-        <v>0</v>
+        <v>262487</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>45144</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2125,17 +2100,29 @@
       <c r="B10" t="s">
         <v>18</v>
       </c>
+      <c r="C10" s="2">
+        <v>44460</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
       <c r="E10">
-        <v>0</v>
+        <v>21033630</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
       </c>
+      <c r="G10" s="2">
+        <v>44350</v>
+      </c>
+      <c r="H10" t="s">
+        <v>53</v>
+      </c>
       <c r="I10">
-        <v>0</v>
+        <v>17903000</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>3130630</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2145,17 +2132,29 @@
       <c r="B11" t="s">
         <v>18</v>
       </c>
+      <c r="C11" s="2">
+        <v>44460</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
       <c r="E11">
-        <v>0</v>
+        <v>2727547</v>
       </c>
       <c r="F11" t="s">
         <v>29</v>
       </c>
+      <c r="G11" s="2">
+        <v>44351</v>
+      </c>
+      <c r="H11" t="s">
+        <v>53</v>
+      </c>
       <c r="I11">
-        <v>0</v>
+        <v>2320582</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>406965</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2165,17 +2164,29 @@
       <c r="B12" t="s">
         <v>18</v>
       </c>
+      <c r="C12" s="2">
+        <v>44462</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
       <c r="E12">
-        <v>0</v>
+        <v>52755244</v>
       </c>
       <c r="F12" t="s">
         <v>29</v>
       </c>
+      <c r="G12" s="2">
+        <v>44350</v>
+      </c>
+      <c r="H12" t="s">
+        <v>53</v>
+      </c>
       <c r="I12">
-        <v>0</v>
+        <v>44840055</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7915189</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2185,17 +2196,29 @@
       <c r="B13" t="s">
         <v>18</v>
       </c>
+      <c r="C13" s="2">
+        <v>44460</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
       <c r="E13">
-        <v>0</v>
+        <v>18006332</v>
       </c>
       <c r="F13" t="s">
         <v>29</v>
       </c>
+      <c r="G13" s="2">
+        <v>44351</v>
+      </c>
+      <c r="H13" t="s">
+        <v>53</v>
+      </c>
       <c r="I13">
-        <v>0</v>
+        <v>15174690</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>2831642</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2205,309 +2228,29 @@
       <c r="B14" t="s">
         <v>18</v>
       </c>
+      <c r="C14" s="2">
+        <v>44460</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
       <c r="E14">
-        <v>0</v>
+        <v>3260</v>
       </c>
       <c r="F14" t="s">
         <v>29</v>
       </c>
+      <c r="G14" s="2">
+        <v>44350</v>
+      </c>
+      <c r="H14" t="s">
+        <v>53</v>
+      </c>
       <c r="I14">
-        <v>0</v>
+        <v>2680</v>
       </c>
       <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22" t="s">
-        <v>29</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23" t="s">
-        <v>29</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24" t="s">
-        <v>29</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25" t="s">
-        <v>29</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26" t="s">
-        <v>29</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27" t="s">
-        <v>29</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="2">
-        <v>44260</v>
-      </c>
-      <c r="D28" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" s="2">
-        <v>44260</v>
-      </c>
-      <c r="H28" t="s">
-        <v>66</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
+        <v>580</v>
       </c>
     </row>
   </sheetData>
@@ -2525,13 +2268,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>28</v>
@@ -2539,7 +2282,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B2">
         <v>560772</v>
@@ -2553,7 +2296,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B3">
         <v>54242</v>
@@ -2567,7 +2310,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B4">
         <v>66563</v>
@@ -2581,7 +2324,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B5">
         <v>247419</v>
@@ -2595,7 +2338,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B6">
         <v>835053</v>
@@ -2609,7 +2352,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B7">
         <v>609057</v>
@@ -2623,7 +2366,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B8">
         <v>296037</v>
@@ -2637,7 +2380,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>346283</v>
@@ -2651,7 +2394,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>432271</v>
@@ -2665,7 +2408,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>101824</v>
@@ -2679,7 +2422,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B12">
         <v>1186849</v>
@@ -2693,7 +2436,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B13">
         <v>856735</v>
@@ -2707,7 +2450,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B14">
         <v>582306</v>
@@ -2721,7 +2464,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B15">
         <v>54982</v>
@@ -2735,7 +2478,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B16">
         <v>560069</v>
@@ -2749,7 +2492,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B17">
         <v>907943</v>
@@ -2763,7 +2506,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B18">
         <v>20683</v>
@@ -2777,7 +2520,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B19">
         <v>144929</v>
@@ -2791,7 +2534,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B20">
         <v>533651</v>
@@ -2805,7 +2548,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B21">
         <v>353202</v>
@@ -2819,7 +2562,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B22">
         <v>33892</v>
@@ -2833,7 +2576,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B23">
         <v>1796646</v>
@@ -2847,7 +2590,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B24">
         <v>1867575</v>
@@ -2861,7 +2604,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B25">
         <v>706071</v>
@@ -2875,7 +2618,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B26">
         <v>47582</v>
@@ -2889,7 +2632,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B27">
         <v>786028</v>
@@ -2903,7 +2646,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B28">
         <v>391127</v>
@@ -2917,7 +2660,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B29">
         <v>72409</v>
@@ -2931,7 +2674,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B30">
         <v>32227</v>
@@ -2945,7 +2688,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B31">
         <v>134273</v>
@@ -2959,7 +2702,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B32">
         <v>1359824</v>
@@ -2973,7 +2716,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B33">
         <v>65305</v>
@@ -2987,7 +2730,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B34">
         <v>369593</v>

--- a/allTest_allOrg.xlsx
+++ b/allTest_allOrg.xlsx
@@ -7,20 +7,27 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="insCountMax prod_medstar_mdpcp" sheetId="1" r:id="rId1"/>
-    <sheet name="insCountMaxC prod_medstar_mdpcp" sheetId="2" r:id="rId2"/>
-    <sheet name="dup check prod_medstar_mdpcp" sheetId="3" r:id="rId3"/>
-    <sheet name="acoXdupMonth prod_medstar_mdpcp" sheetId="4" r:id="rId4"/>
-    <sheet name="odsCountMax prod_medstar_mdpcp" sheetId="5" r:id="rId5"/>
-    <sheet name="odsCountMaxC prod_medstar_mdpcp" sheetId="6" r:id="rId6"/>
-    <sheet name="ccsCompare prod_medstar_mdpcp" sheetId="7" r:id="rId7"/>
+    <sheet name="insCountMax dev_adaugeopi" sheetId="1" r:id="rId1"/>
+    <sheet name="insCountMaxC dev_adaugeopi" sheetId="2" r:id="rId2"/>
+    <sheet name="dup check dev_adaugeopi" sheetId="3" r:id="rId3"/>
+    <sheet name="acoXdupMonth dev_adaugeopi" sheetId="4" r:id="rId4"/>
+    <sheet name="odsCountMax dev_adaugeopi" sheetId="5" r:id="rId5"/>
+    <sheet name="odsCountMaxC dev_adaugeopi" sheetId="6" r:id="rId6"/>
+    <sheet name="ccsCompare dev_adaugeopi" sheetId="7" r:id="rId7"/>
+    <sheet name="insCountMax prod_ilumedpi" sheetId="8" r:id="rId8"/>
+    <sheet name="insCountMaxC prod_ilumedpi" sheetId="9" r:id="rId9"/>
+    <sheet name="dup check prod_ilumedpi" sheetId="10" r:id="rId10"/>
+    <sheet name="acoXdupMonth prod_ilumedpi" sheetId="11" r:id="rId11"/>
+    <sheet name="odsCountMax prod_ilumedpi" sheetId="12" r:id="rId12"/>
+    <sheet name="odsCountMaxC prod_ilumedpi" sheetId="13" r:id="rId13"/>
+    <sheet name="ccsCompare prod_ilumedpi" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="107">
   <si>
     <t>tableName</t>
   </si>
@@ -76,220 +83,271 @@
     <t>metric_value_operational_dashboard</t>
   </si>
   <si>
-    <t>PROD_MEDSTAR_MDPCP</t>
+    <t>DEV_ADAUGEOPI</t>
+  </si>
+  <si>
+    <t>m-2021-09</t>
+  </si>
+  <si>
+    <t>orgDBName_x</t>
+  </si>
+  <si>
+    <t>MaxLoadTS_x</t>
+  </si>
+  <si>
+    <t>MaxLP_x</t>
+  </si>
+  <si>
+    <t>rwCount_x</t>
+  </si>
+  <si>
+    <t>orgDBName_y</t>
+  </si>
+  <si>
+    <t>MaxLoadTS_y</t>
+  </si>
+  <si>
+    <t>MaxLP_y</t>
+  </si>
+  <si>
+    <t>rwCount_y</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>DEV_ADAUGEOPI_FE</t>
+  </si>
+  <si>
+    <t>rowsEffected</t>
+  </si>
+  <si>
+    <t>pkRowCount</t>
+  </si>
+  <si>
+    <t>ATTRIBUTION_REASON_CD</t>
+  </si>
+  <si>
+    <t>ATTRIBUTION_SOURCE_CD</t>
+  </si>
+  <si>
+    <t>FK_ACO_ID</t>
+  </si>
+  <si>
+    <t>FK_PATIENT_ID</t>
+  </si>
+  <si>
+    <t>MONTH_CD</t>
+  </si>
+  <si>
+    <t>DUPMOCNT</t>
+  </si>
+  <si>
+    <t>cclf_0_summ_stat</t>
+  </si>
+  <si>
+    <t>cclf_1_pt_a_clm_hdr</t>
+  </si>
+  <si>
+    <t>cclf_2_pt_a_clm_rev_ctr_det</t>
+  </si>
+  <si>
+    <t>cclf_3_pt_a_proc_cd</t>
+  </si>
+  <si>
+    <t>cclf_4_pt_a_diag_cd</t>
+  </si>
+  <si>
+    <t>cclf_5_pt_b_phys</t>
+  </si>
+  <si>
+    <t>cclf_6_pt_b_dme</t>
+  </si>
+  <si>
+    <t>cclf_7_pt_d</t>
+  </si>
+  <si>
+    <t>cclf_8_bene_demo</t>
+  </si>
+  <si>
+    <t>cclf_assgn_0_header</t>
+  </si>
+  <si>
+    <t>cclf_assgn_1_hcc</t>
+  </si>
+  <si>
+    <t>cclf_assgn_1_summ</t>
+  </si>
+  <si>
+    <t>cclf_assgn_2_tin</t>
+  </si>
+  <si>
+    <t>cclf_assgn_3_ccn</t>
+  </si>
+  <si>
+    <t>cclf_assgn_4_tin_npi</t>
+  </si>
+  <si>
+    <t>cclf_assgn_5_turnover</t>
+  </si>
+  <si>
+    <t>cclf_assgn_6_assgnbl</t>
+  </si>
+  <si>
+    <t>cclf_a_pt_a_be_demo</t>
+  </si>
+  <si>
+    <t>cclf_benchmark_1_detail</t>
+  </si>
+  <si>
+    <t>cclf_b_pt_b_be_demo</t>
+  </si>
+  <si>
+    <t>cclf_expu_0_header</t>
+  </si>
+  <si>
+    <t>cclf_expu_1_detail</t>
+  </si>
+  <si>
+    <t>cclf_expu_2_regional</t>
+  </si>
+  <si>
+    <t>cclf_expu_2_snf</t>
+  </si>
+  <si>
+    <t>cclf_expu_3_snf</t>
+  </si>
+  <si>
+    <t>cclf_ng_align</t>
+  </si>
+  <si>
+    <t>nh_network_model_0_hdr</t>
+  </si>
+  <si>
+    <t>2021-09</t>
+  </si>
+  <si>
+    <t>2021-07</t>
+  </si>
+  <si>
+    <t>MEASURE_ID</t>
+  </si>
+  <si>
+    <t>RWCNT_x</t>
+  </si>
+  <si>
+    <t>RWCNT_y</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_acquired_hypothyroidism</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_acute_myocardial_infarction</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_alzheimers_disease</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_alzheimers_disease_and_related_disorders_or_senile_dementia</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_anemia</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_anxiety_disorders</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_asthma</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_atrial_fibrillation</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_benign_prostatic_hyperplasia</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_bipolar_disorder</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_cataract</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_chronic_kidney_disease</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_chronic_obstructive_pulmonary_disease_and_bronchiectasis</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_colorectal_cancer</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_depression</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_diabetes</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_endometrial_cancer</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_female_male_breast_cancer</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_glaucoma</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_heart_failure</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_hip_pelvic_fracture</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_hyperlipidemia</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_hypertension</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_ischemic_heart_disease</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_lung_cancer</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_obesity</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_osteoporosis</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_personality_disorders</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_post_traumatic_stress_disorder</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_prostate_cancer</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_rheumatoid_arthritis_osteoarthritis</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_schizophrenia_and_other_psychotic_disorders</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_stroke_transient_ischemic_attack</t>
+  </si>
+  <si>
+    <t>PROD_ILUMEDPI</t>
   </si>
   <si>
     <t>m-2021-11</t>
   </si>
   <si>
-    <t>orgDBName_x</t>
-  </si>
-  <si>
-    <t>MaxLoadTS_x</t>
-  </si>
-  <si>
-    <t>MaxLP_x</t>
-  </si>
-  <si>
-    <t>rwCount_x</t>
-  </si>
-  <si>
-    <t>orgDBName_y</t>
-  </si>
-  <si>
-    <t>MaxLoadTS_y</t>
-  </si>
-  <si>
-    <t>MaxLP_y</t>
-  </si>
-  <si>
-    <t>rwCount_y</t>
-  </si>
-  <si>
-    <t>diff</t>
-  </si>
-  <si>
-    <t>PROD_MEDSTAR_MDPCP_FE</t>
-  </si>
-  <si>
-    <t>m-2021-09</t>
-  </si>
-  <si>
-    <t>rowsEffected</t>
-  </si>
-  <si>
-    <t>pkRowCount</t>
-  </si>
-  <si>
-    <t>ATTRIBUTION_REASON_CD</t>
-  </si>
-  <si>
-    <t>ATTRIBUTION_SOURCE_CD</t>
-  </si>
-  <si>
-    <t>FK_ACO_ID</t>
-  </si>
-  <si>
-    <t>FK_PATIENT_ID</t>
-  </si>
-  <si>
-    <t>MONTH_CD</t>
-  </si>
-  <si>
-    <t>DUPMOCNT</t>
-  </si>
-  <si>
-    <t>mdpcp_assgn_attribd</t>
-  </si>
-  <si>
-    <t>mdpcp_assgn_termd</t>
-  </si>
-  <si>
-    <t>mdpcp_bened</t>
-  </si>
-  <si>
-    <t>mdpcp_bened_month</t>
-  </si>
-  <si>
-    <t>mdpcp_bened_year</t>
-  </si>
-  <si>
-    <t>mdpcp_ptaclm</t>
-  </si>
-  <si>
-    <t>mdpcp_ptadgn</t>
-  </si>
-  <si>
-    <t>mdpcp_ptaprc</t>
-  </si>
-  <si>
-    <t>mdpcp_ptarev</t>
-  </si>
-  <si>
-    <t>mdpcp_ptbdme</t>
-  </si>
-  <si>
-    <t>mdpcp_ptbphy</t>
-  </si>
-  <si>
-    <t>mdpcp_ptd</t>
-  </si>
-  <si>
-    <t>mdpcp_stat</t>
-  </si>
-  <si>
-    <t>q-2021-3</t>
-  </si>
-  <si>
-    <t>q-2021-2</t>
-  </si>
-  <si>
-    <t>MEASURE_ID</t>
-  </si>
-  <si>
-    <t>RWCNT_x</t>
-  </si>
-  <si>
-    <t>RWCNT_y</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_acquired_hypothyroidism</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_acute_myocardial_infarction</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_alzheimers_disease</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_alzheimers_disease_and_related_disorders_or_senile_dementia</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_anemia</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_anxiety_disorders</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_asthma</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_atrial_fibrillation</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_benign_prostatic_hyperplasia</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_bipolar_disorder</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_cataract</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_chronic_kidney_disease</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_chronic_obstructive_pulmonary_disease_and_bronchiectasis</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_colorectal_cancer</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_depression</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_diabetes</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_endometrial_cancer</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_female_male_breast_cancer</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_glaucoma</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_heart_failure</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_hip_pelvic_fracture</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_hyperlipidemia</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_hypertension</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_ischemic_heart_disease</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_lung_cancer</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_obesity</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_osteoporosis</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_personality_disorders</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_post_traumatic_stress_disorder</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_prostate_cancer</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_rheumatoid_arthritis_osteoarthritis</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_schizophrenia_and_other_psychotic_disorders</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_stroke_transient_ischemic_attack</t>
+    <t>PROD_ILUMEDPI_FE</t>
+  </si>
+  <si>
+    <t>2021-11</t>
   </si>
 </sst>
 </file>
@@ -682,13 +740,13 @@
         <v>18</v>
       </c>
       <c r="C2" s="2">
-        <v>44518</v>
+        <v>44483</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
       </c>
       <c r="E2">
-        <v>20106</v>
+        <v>4354</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -699,13 +757,13 @@
         <v>18</v>
       </c>
       <c r="C3" s="2">
-        <v>44518</v>
+        <v>44483</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
       </c>
       <c r="E3">
-        <v>31899</v>
+        <v>7835</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -716,13 +774,13 @@
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>44518</v>
+        <v>44483</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4">
-        <v>98123</v>
+        <v>22678</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -733,13 +791,13 @@
         <v>18</v>
       </c>
       <c r="C5" s="2">
-        <v>44518</v>
+        <v>44483</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
       </c>
       <c r="E5">
-        <v>62170</v>
+        <v>7458</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -750,13 +808,13 @@
         <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>44518</v>
+        <v>44483</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
       </c>
       <c r="E6">
-        <v>21667983</v>
+        <v>1914067</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -767,13 +825,13 @@
         <v>18</v>
       </c>
       <c r="C7" s="2">
-        <v>44518</v>
+        <v>44483</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
       </c>
       <c r="E7">
-        <v>9493744</v>
+        <v>969468</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -784,13 +842,13 @@
         <v>18</v>
       </c>
       <c r="C8" s="2">
-        <v>44518</v>
+        <v>44483</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
       </c>
       <c r="E8">
-        <v>107064</v>
+        <v>5438</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -812,13 +870,13 @@
         <v>18</v>
       </c>
       <c r="C10" s="2">
-        <v>44518</v>
+        <v>44483</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
       </c>
       <c r="E10">
-        <v>7033809</v>
+        <v>592217</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -829,13 +887,13 @@
         <v>18</v>
       </c>
       <c r="C11" s="2">
-        <v>44518</v>
+        <v>44483</v>
       </c>
       <c r="D11" t="s">
         <v>19</v>
       </c>
       <c r="E11">
-        <v>3255525</v>
+        <v>318980</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -846,13 +904,13 @@
         <v>18</v>
       </c>
       <c r="C12" s="2">
-        <v>44518</v>
+        <v>44483</v>
       </c>
       <c r="D12" t="s">
         <v>19</v>
       </c>
       <c r="E12">
-        <v>20271533</v>
+        <v>1977912</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -863,13 +921,13 @@
         <v>18</v>
       </c>
       <c r="C13" s="2">
-        <v>44518</v>
+        <v>44483</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
       </c>
       <c r="E13">
-        <v>3220252</v>
+        <v>335708</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -880,13 +938,1818 @@
         <v>18</v>
       </c>
       <c r="C14" s="2">
-        <v>44518</v>
+        <v>44483</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
       </c>
       <c r="E14">
-        <v>18729338</v>
+        <v>3400773</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10">
+        <v>2036</v>
+      </c>
+      <c r="D10">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44518</v>
+      </c>
+      <c r="D2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44518</v>
+      </c>
+      <c r="D3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3">
+        <v>66556</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44518</v>
+      </c>
+      <c r="D4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4">
+        <v>725191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44518</v>
+      </c>
+      <c r="D5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5">
+        <v>5874</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44518</v>
+      </c>
+      <c r="D6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6">
+        <v>416913</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44518</v>
+      </c>
+      <c r="D7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7">
+        <v>761861</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44518</v>
+      </c>
+      <c r="D8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8">
+        <v>43048</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44518</v>
+      </c>
+      <c r="D9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9">
+        <v>377619</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44518</v>
+      </c>
+      <c r="D10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10">
+        <v>24397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="2">
+        <v>44518</v>
+      </c>
+      <c r="D19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19">
+        <v>66556</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="2">
+        <v>44518</v>
+      </c>
+      <c r="D21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21">
+        <v>761861</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44518</v>
+      </c>
+      <c r="D2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2">
+        <v>77</v>
+      </c>
+      <c r="F2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="2">
+        <v>44474</v>
+      </c>
+      <c r="H2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2">
+        <v>66</v>
+      </c>
+      <c r="J2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44518</v>
+      </c>
+      <c r="D3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3">
+        <v>66556</v>
+      </c>
+      <c r="F3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="2">
+        <v>44474</v>
+      </c>
+      <c r="H3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3">
+        <v>64899</v>
+      </c>
+      <c r="J3">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44518</v>
+      </c>
+      <c r="D4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4">
+        <v>725191</v>
+      </c>
+      <c r="F4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="2">
+        <v>44474</v>
+      </c>
+      <c r="H4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4">
+        <v>706197</v>
+      </c>
+      <c r="J4">
+        <v>18994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44518</v>
+      </c>
+      <c r="D5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5">
+        <v>5874</v>
+      </c>
+      <c r="F5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="2">
+        <v>44474</v>
+      </c>
+      <c r="H5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5">
+        <v>5726</v>
+      </c>
+      <c r="J5">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44518</v>
+      </c>
+      <c r="D6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6">
+        <v>416913</v>
+      </c>
+      <c r="F6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" s="2">
+        <v>44474</v>
+      </c>
+      <c r="H6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6">
+        <v>406200</v>
+      </c>
+      <c r="J6">
+        <v>10713</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44518</v>
+      </c>
+      <c r="D7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7">
+        <v>761861</v>
+      </c>
+      <c r="F7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44474</v>
+      </c>
+      <c r="H7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7">
+        <v>741137</v>
+      </c>
+      <c r="J7">
+        <v>20724</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44518</v>
+      </c>
+      <c r="D8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8">
+        <v>43048</v>
+      </c>
+      <c r="F8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="2">
+        <v>44474</v>
+      </c>
+      <c r="H8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8">
+        <v>42078</v>
+      </c>
+      <c r="J8">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44518</v>
+      </c>
+      <c r="D9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9">
+        <v>377619</v>
+      </c>
+      <c r="F9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="2">
+        <v>44474</v>
+      </c>
+      <c r="H9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9">
+        <v>369389</v>
+      </c>
+      <c r="J9">
+        <v>8230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44518</v>
+      </c>
+      <c r="D10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10">
+        <v>24397</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="2">
+        <v>44474</v>
+      </c>
+      <c r="H10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10">
+        <v>20997</v>
+      </c>
+      <c r="J10">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="2">
+        <v>44518</v>
+      </c>
+      <c r="D19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19">
+        <v>66556</v>
+      </c>
+      <c r="F19" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="2">
+        <v>44474</v>
+      </c>
+      <c r="H19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19">
+        <v>64899</v>
+      </c>
+      <c r="J19">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>105</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="2">
+        <v>44518</v>
+      </c>
+      <c r="D21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21">
+        <v>761861</v>
+      </c>
+      <c r="F21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="2">
+        <v>44474</v>
+      </c>
+      <c r="H21" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21">
+        <v>741137</v>
+      </c>
+      <c r="J21">
+        <v>20724</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>105</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>105</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>105</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>105</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>105</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>105</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>105</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2">
+        <v>44696</v>
+      </c>
+      <c r="C2">
+        <v>44511</v>
+      </c>
+      <c r="D2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3">
+        <v>2220</v>
+      </c>
+      <c r="C3">
+        <v>2072</v>
+      </c>
+      <c r="D3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4">
+        <v>6623</v>
+      </c>
+      <c r="C4">
+        <v>6475</v>
+      </c>
+      <c r="D4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5">
+        <v>21386</v>
+      </c>
+      <c r="C5">
+        <v>21201</v>
+      </c>
+      <c r="D5">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6">
+        <v>49136</v>
+      </c>
+      <c r="C6">
+        <v>48433</v>
+      </c>
+      <c r="D6">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7">
+        <v>47027</v>
+      </c>
+      <c r="C7">
+        <v>46546</v>
+      </c>
+      <c r="D7">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8">
+        <v>17390</v>
+      </c>
+      <c r="C8">
+        <v>17131</v>
+      </c>
+      <c r="D8">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9">
+        <v>23347</v>
+      </c>
+      <c r="C9">
+        <v>23051</v>
+      </c>
+      <c r="D9">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10">
+        <v>29304</v>
+      </c>
+      <c r="C10">
+        <v>29119</v>
+      </c>
+      <c r="D10">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11">
+        <v>5106</v>
+      </c>
+      <c r="C11">
+        <v>5106</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12">
+        <v>71558</v>
+      </c>
+      <c r="C12">
+        <v>70855</v>
+      </c>
+      <c r="D12">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13">
+        <v>51393</v>
+      </c>
+      <c r="C13">
+        <v>50912</v>
+      </c>
+      <c r="D13">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14">
+        <v>35890</v>
+      </c>
+      <c r="C14">
+        <v>35520</v>
+      </c>
+      <c r="D14">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15">
+        <v>2738</v>
+      </c>
+      <c r="C15">
+        <v>2664</v>
+      </c>
+      <c r="D15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16">
+        <v>37296</v>
+      </c>
+      <c r="C16">
+        <v>36889</v>
+      </c>
+      <c r="D16">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17">
+        <v>46842</v>
+      </c>
+      <c r="C17">
+        <v>46768</v>
+      </c>
+      <c r="D17">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18">
+        <v>999</v>
+      </c>
+      <c r="C18">
+        <v>999</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19">
+        <v>6771</v>
+      </c>
+      <c r="C19">
+        <v>6623</v>
+      </c>
+      <c r="D19">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20">
+        <v>26529</v>
+      </c>
+      <c r="C20">
+        <v>26381</v>
+      </c>
+      <c r="D20">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21">
+        <v>23680</v>
+      </c>
+      <c r="C21">
+        <v>23421</v>
+      </c>
+      <c r="D21">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22">
+        <v>1702</v>
+      </c>
+      <c r="C22">
+        <v>1628</v>
+      </c>
+      <c r="D22">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23">
+        <v>111259</v>
+      </c>
+      <c r="C23">
+        <v>111148</v>
+      </c>
+      <c r="D23">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24">
+        <v>105339</v>
+      </c>
+      <c r="C24">
+        <v>105117</v>
+      </c>
+      <c r="D24">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25">
+        <v>48211</v>
+      </c>
+      <c r="C25">
+        <v>47545</v>
+      </c>
+      <c r="D25">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26">
+        <v>2627</v>
+      </c>
+      <c r="C26">
+        <v>2405</v>
+      </c>
+      <c r="D26">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27">
+        <v>48026</v>
+      </c>
+      <c r="C27">
+        <v>47545</v>
+      </c>
+      <c r="D27">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28">
+        <v>27528</v>
+      </c>
+      <c r="C28">
+        <v>27232</v>
+      </c>
+      <c r="D28">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29">
+        <v>3441</v>
+      </c>
+      <c r="C29">
+        <v>3367</v>
+      </c>
+      <c r="D29">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30">
+        <v>1702</v>
+      </c>
+      <c r="C30">
+        <v>1702</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31">
+        <v>7326</v>
+      </c>
+      <c r="C31">
+        <v>7215</v>
+      </c>
+      <c r="D31">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32">
+        <v>79328</v>
+      </c>
+      <c r="C32">
+        <v>78736</v>
+      </c>
+      <c r="D32">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33">
+        <v>5883</v>
+      </c>
+      <c r="C33">
+        <v>5846</v>
+      </c>
+      <c r="D33">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34">
+        <v>18352</v>
+      </c>
+      <c r="C34">
+        <v>17908</v>
+      </c>
+      <c r="D34">
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -942,28 +2805,22 @@
         <v>18</v>
       </c>
       <c r="C2" s="2">
-        <v>44518</v>
+        <v>44483</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
       </c>
       <c r="E2">
-        <v>20106</v>
+        <v>4354</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="2">
-        <v>44462</v>
-      </c>
-      <c r="H2" t="s">
-        <v>30</v>
-      </c>
       <c r="I2">
-        <v>20106</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4354</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -974,28 +2831,22 @@
         <v>18</v>
       </c>
       <c r="C3" s="2">
-        <v>44518</v>
+        <v>44483</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
       </c>
       <c r="E3">
-        <v>31899</v>
+        <v>7835</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="2">
-        <v>44462</v>
-      </c>
-      <c r="H3" t="s">
-        <v>30</v>
-      </c>
       <c r="I3">
-        <v>31899</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7835</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1006,28 +2857,22 @@
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>44518</v>
+        <v>44483</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4">
-        <v>98123</v>
+        <v>22678</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="2">
-        <v>44462</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
       <c r="I4">
-        <v>98123</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>22678</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1038,28 +2883,22 @@
         <v>18</v>
       </c>
       <c r="C5" s="2">
-        <v>44518</v>
+        <v>44483</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
       </c>
       <c r="E5">
-        <v>62170</v>
+        <v>7458</v>
       </c>
       <c r="F5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="2">
-        <v>44462</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
       <c r="I5">
-        <v>62170</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>7458</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1070,28 +2909,22 @@
         <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>44518</v>
+        <v>44483</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
       </c>
       <c r="E6">
-        <v>21667983</v>
+        <v>1914067</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="2">
-        <v>44462</v>
-      </c>
-      <c r="H6" t="s">
-        <v>30</v>
-      </c>
       <c r="I6">
-        <v>21667983</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1914067</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1102,28 +2935,22 @@
         <v>18</v>
       </c>
       <c r="C7" s="2">
-        <v>44518</v>
+        <v>44483</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
       </c>
       <c r="E7">
-        <v>9493744</v>
+        <v>969468</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="2">
-        <v>44462</v>
-      </c>
-      <c r="H7" t="s">
-        <v>30</v>
-      </c>
       <c r="I7">
-        <v>9493744</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>969468</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1134,28 +2961,22 @@
         <v>18</v>
       </c>
       <c r="C8" s="2">
-        <v>44518</v>
+        <v>44483</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
       </c>
       <c r="E8">
-        <v>107064</v>
+        <v>5438</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="2">
-        <v>44462</v>
-      </c>
-      <c r="H8" t="s">
-        <v>30</v>
-      </c>
       <c r="I8">
-        <v>107064</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5438</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1186,28 +3007,22 @@
         <v>18</v>
       </c>
       <c r="C10" s="2">
-        <v>44518</v>
+        <v>44483</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
       </c>
       <c r="E10">
-        <v>7033809</v>
+        <v>592217</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="2">
-        <v>44462</v>
-      </c>
-      <c r="H10" t="s">
-        <v>30</v>
-      </c>
       <c r="I10">
-        <v>5736567</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>1297242</v>
+        <v>592217</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1218,28 +3033,22 @@
         <v>18</v>
       </c>
       <c r="C11" s="2">
-        <v>44518</v>
+        <v>44483</v>
       </c>
       <c r="D11" t="s">
         <v>19</v>
       </c>
       <c r="E11">
-        <v>3255525</v>
+        <v>318980</v>
       </c>
       <c r="F11" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="2">
-        <v>44462</v>
-      </c>
-      <c r="H11" t="s">
-        <v>30</v>
-      </c>
       <c r="I11">
-        <v>3210072</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>45453</v>
+        <v>318980</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1250,28 +3059,22 @@
         <v>18</v>
       </c>
       <c r="C12" s="2">
-        <v>44518</v>
+        <v>44483</v>
       </c>
       <c r="D12" t="s">
         <v>19</v>
       </c>
       <c r="E12">
-        <v>20271533</v>
+        <v>1977912</v>
       </c>
       <c r="F12" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="2">
-        <v>44462</v>
-      </c>
-      <c r="H12" t="s">
-        <v>30</v>
-      </c>
       <c r="I12">
-        <v>20271533</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1977912</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1282,28 +3085,22 @@
         <v>18</v>
       </c>
       <c r="C13" s="2">
-        <v>44518</v>
+        <v>44483</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
       </c>
       <c r="E13">
-        <v>3220252</v>
+        <v>335708</v>
       </c>
       <c r="F13" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="2">
-        <v>44462</v>
-      </c>
-      <c r="H13" t="s">
-        <v>30</v>
-      </c>
       <c r="I13">
-        <v>3196716</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>23536</v>
+        <v>335708</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1314,28 +3111,22 @@
         <v>18</v>
       </c>
       <c r="C14" s="2">
-        <v>44518</v>
+        <v>44483</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
       </c>
       <c r="E14">
-        <v>18729338</v>
+        <v>3400773</v>
       </c>
       <c r="F14" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="2">
-        <v>44462</v>
-      </c>
-      <c r="H14" t="s">
-        <v>30</v>
-      </c>
       <c r="I14">
-        <v>16047207</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>2682131</v>
+        <v>3400773</v>
       </c>
     </row>
   </sheetData>
@@ -1359,10 +3150,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1523,22 +3314,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1548,7 +3339,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1573,223 +3364,371 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="2">
-        <v>44461</v>
+        <v>44474</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E2">
-        <v>454893</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="2">
-        <v>44461</v>
+        <v>44474</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E3">
-        <v>19840</v>
+        <v>92402</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>44461</v>
+        <v>44474</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E4">
-        <v>346699</v>
+        <v>593786</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="2">
-        <v>44461</v>
+        <v>44474</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E5">
-        <v>14124240</v>
+        <v>7745</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>44461</v>
+        <v>44474</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E6">
-        <v>1305944</v>
+        <v>395994</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="2">
-        <v>44460</v>
+        <v>44474</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E7">
-        <v>2690350</v>
+        <v>1167223</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="2">
-        <v>44460</v>
+        <v>44474</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E8">
-        <v>14957229</v>
+        <v>74199</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="2">
-        <v>44460</v>
+        <v>44474</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E9">
-        <v>307631</v>
+        <v>514723</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="2">
-        <v>44460</v>
+        <v>44483</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E10">
-        <v>21033630</v>
+        <v>51307</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="2">
-        <v>44460</v>
-      </c>
-      <c r="D11" t="s">
-        <v>52</v>
-      </c>
       <c r="E11">
-        <v>2727547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="2">
-        <v>44462</v>
-      </c>
-      <c r="D12" t="s">
-        <v>52</v>
-      </c>
       <c r="E12">
-        <v>52755244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="2">
-        <v>44460</v>
-      </c>
-      <c r="D13" t="s">
-        <v>52</v>
-      </c>
       <c r="E13">
-        <v>18006332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
         <v>51</v>
       </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="2">
-        <v>44460</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
         <v>52</v>
       </c>
-      <c r="E14">
-        <v>3260</v>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2">
+        <v>44474</v>
+      </c>
+      <c r="D19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19">
+        <v>92402</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2">
+        <v>44474</v>
+      </c>
+      <c r="D21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21">
+        <v>1167223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="2">
+        <v>44403</v>
+      </c>
+      <c r="D28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1799,7 +3738,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1839,418 +3778,614 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="2">
-        <v>44461</v>
+        <v>44474</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E2">
-        <v>454893</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="2">
-        <v>44349</v>
-      </c>
-      <c r="H2" t="s">
-        <v>53</v>
-      </c>
       <c r="I2">
-        <v>366693</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>88200</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="2">
-        <v>44461</v>
+        <v>44474</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E3">
-        <v>19840</v>
+        <v>92402</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="2">
-        <v>44349</v>
-      </c>
-      <c r="H3" t="s">
-        <v>53</v>
-      </c>
       <c r="I3">
-        <v>15003</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>4837</v>
+        <v>92402</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>44461</v>
+        <v>44474</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E4">
-        <v>346699</v>
+        <v>593786</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="2">
-        <v>44351</v>
-      </c>
-      <c r="H4" t="s">
-        <v>53</v>
-      </c>
       <c r="I4">
-        <v>295413</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>51286</v>
+        <v>593786</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="2">
-        <v>44461</v>
+        <v>44474</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E5">
-        <v>14124240</v>
+        <v>7745</v>
       </c>
       <c r="F5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="2">
-        <v>44351</v>
-      </c>
-      <c r="H5" t="s">
-        <v>53</v>
-      </c>
       <c r="I5">
-        <v>12243708</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1880532</v>
+        <v>7745</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>44461</v>
+        <v>44474</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E6">
-        <v>1305944</v>
+        <v>395994</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="2">
-        <v>44351</v>
-      </c>
-      <c r="H6" t="s">
-        <v>53</v>
-      </c>
       <c r="I6">
-        <v>1104604</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>201340</v>
+        <v>395994</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="2">
-        <v>44460</v>
+        <v>44474</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E7">
-        <v>2690350</v>
+        <v>1167223</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="2">
-        <v>44350</v>
-      </c>
-      <c r="H7" t="s">
-        <v>53</v>
-      </c>
       <c r="I7">
-        <v>2297612</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>392738</v>
+        <v>1167223</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="2">
-        <v>44460</v>
+        <v>44474</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E8">
-        <v>14957229</v>
+        <v>74199</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="2">
-        <v>44350</v>
-      </c>
-      <c r="H8" t="s">
-        <v>53</v>
-      </c>
       <c r="I8">
-        <v>12804554</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>2152675</v>
+        <v>74199</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="2">
-        <v>44460</v>
+        <v>44474</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E9">
-        <v>307631</v>
+        <v>514723</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="2">
-        <v>44350</v>
-      </c>
-      <c r="H9" t="s">
-        <v>53</v>
-      </c>
       <c r="I9">
-        <v>262487</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>45144</v>
+        <v>514723</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="2">
-        <v>44460</v>
+        <v>44483</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E10">
-        <v>21033630</v>
+        <v>51307</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="2">
-        <v>44350</v>
-      </c>
-      <c r="H10" t="s">
-        <v>53</v>
-      </c>
       <c r="I10">
-        <v>17903000</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>3130630</v>
+        <v>51307</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="2">
-        <v>44460</v>
-      </c>
-      <c r="D11" t="s">
-        <v>52</v>
-      </c>
       <c r="E11">
-        <v>2727547</v>
+        <v>0</v>
       </c>
       <c r="F11" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="2">
-        <v>44351</v>
-      </c>
-      <c r="H11" t="s">
-        <v>53</v>
-      </c>
       <c r="I11">
-        <v>2320582</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>406965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="2">
-        <v>44462</v>
-      </c>
-      <c r="D12" t="s">
-        <v>52</v>
-      </c>
       <c r="E12">
-        <v>52755244</v>
+        <v>0</v>
       </c>
       <c r="F12" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="2">
-        <v>44350</v>
-      </c>
-      <c r="H12" t="s">
-        <v>53</v>
-      </c>
       <c r="I12">
-        <v>44840055</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>7915189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="2">
-        <v>44460</v>
-      </c>
-      <c r="D13" t="s">
-        <v>52</v>
-      </c>
       <c r="E13">
-        <v>18006332</v>
+        <v>0</v>
       </c>
       <c r="F13" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="2">
-        <v>44351</v>
-      </c>
-      <c r="H13" t="s">
-        <v>53</v>
-      </c>
       <c r="I13">
-        <v>15174690</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>2831642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="2">
-        <v>44460</v>
-      </c>
-      <c r="D14" t="s">
-        <v>52</v>
-      </c>
       <c r="E14">
-        <v>3260</v>
+        <v>0</v>
       </c>
       <c r="F14" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="2">
-        <v>44350</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
         <v>53</v>
       </c>
-      <c r="I14">
-        <v>2680</v>
-      </c>
-      <c r="J14">
-        <v>580</v>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2">
+        <v>44474</v>
+      </c>
+      <c r="D19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19">
+        <v>92402</v>
+      </c>
+      <c r="F19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>92402</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2">
+        <v>44474</v>
+      </c>
+      <c r="D21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21">
+        <v>1167223</v>
+      </c>
+      <c r="F21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1167223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="2">
+        <v>44403</v>
+      </c>
+      <c r="D28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2268,13 +4403,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>28</v>
@@ -2282,464 +4417,960 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B2">
-        <v>560772</v>
-      </c>
-      <c r="C2">
-        <v>560772</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
+        <v>80142</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B3">
-        <v>54242</v>
-      </c>
-      <c r="C3">
-        <v>54242</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B4">
-        <v>66563</v>
-      </c>
-      <c r="C4">
-        <v>66563</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
+        <v>6031</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B5">
-        <v>247419</v>
-      </c>
-      <c r="C5">
-        <v>247419</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
+        <v>18426</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B6">
-        <v>835053</v>
-      </c>
-      <c r="C6">
-        <v>835053</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
+        <v>56906</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B7">
-        <v>609057</v>
-      </c>
-      <c r="C7">
-        <v>609057</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
+        <v>62974</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B8">
-        <v>296037</v>
-      </c>
-      <c r="C8">
-        <v>296037</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
+        <v>36519</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B9">
-        <v>346283</v>
-      </c>
-      <c r="C9">
-        <v>346283</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
+        <v>36519</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B10">
-        <v>432271</v>
-      </c>
-      <c r="C10">
-        <v>432271</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
+        <v>51985</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B11">
-        <v>101824</v>
-      </c>
-      <c r="C11">
-        <v>101824</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
+        <v>9176</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B12">
-        <v>1186849</v>
-      </c>
-      <c r="C12">
-        <v>1186849</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
+        <v>173012</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B13">
-        <v>856735</v>
-      </c>
-      <c r="C13">
-        <v>856735</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
+        <v>76664</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="B14">
-        <v>582306</v>
-      </c>
-      <c r="C14">
-        <v>582306</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
+        <v>39997</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B15">
-        <v>54982</v>
-      </c>
-      <c r="C15">
-        <v>54982</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
+        <v>4810</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B16">
-        <v>560069</v>
-      </c>
-      <c r="C16">
-        <v>560069</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>65601</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B17">
-        <v>907943</v>
-      </c>
-      <c r="C17">
-        <v>907943</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>60754</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B18">
-        <v>20683</v>
-      </c>
-      <c r="C18">
-        <v>20683</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B19">
-        <v>144929</v>
-      </c>
-      <c r="C19">
-        <v>144929</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>16243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B20">
-        <v>533651</v>
-      </c>
-      <c r="C20">
-        <v>533651</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>54427</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B21">
-        <v>353202</v>
-      </c>
-      <c r="C21">
-        <v>353202</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>28305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B22">
-        <v>33892</v>
-      </c>
-      <c r="C22">
-        <v>33892</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>3145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="B23">
-        <v>1796646</v>
-      </c>
-      <c r="C23">
-        <v>1796646</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>183150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="B24">
-        <v>1867575</v>
-      </c>
-      <c r="C24">
-        <v>1867575</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>187035</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B25">
-        <v>706071</v>
-      </c>
-      <c r="C25">
-        <v>706071</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>63492</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B26">
-        <v>47582</v>
-      </c>
-      <c r="C26">
-        <v>47582</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="B27">
-        <v>786028</v>
-      </c>
-      <c r="C27">
-        <v>786028</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>60643</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B28">
-        <v>391127</v>
-      </c>
-      <c r="C28">
-        <v>391127</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>56240</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B29">
-        <v>72409</v>
-      </c>
-      <c r="C29">
-        <v>72409</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>5735</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B30">
-        <v>32227</v>
-      </c>
-      <c r="C30">
-        <v>32227</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>6586</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B31">
-        <v>134273</v>
-      </c>
-      <c r="C31">
-        <v>134273</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>15688</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B32">
-        <v>1359824</v>
-      </c>
-      <c r="C32">
-        <v>1359824</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>161616</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B33">
-        <v>65305</v>
-      </c>
-      <c r="C33">
-        <v>65305</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B34">
-        <v>369593</v>
-      </c>
-      <c r="C34">
-        <v>369593</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
+        <v>25419</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44522</v>
+      </c>
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2">
+        <v>6662</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44522</v>
+      </c>
+      <c r="D3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3">
+        <v>11049</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44522</v>
+      </c>
+      <c r="D4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4">
+        <v>27102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44522</v>
+      </c>
+      <c r="D5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5">
+        <v>3416</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44522</v>
+      </c>
+      <c r="D6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6">
+        <v>1480673</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44522</v>
+      </c>
+      <c r="D7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7">
+        <v>537303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44522</v>
+      </c>
+      <c r="D8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8">
+        <v>9960</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44522</v>
+      </c>
+      <c r="D10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10">
+        <v>262770</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44522</v>
+      </c>
+      <c r="D11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11">
+        <v>152352</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44522</v>
+      </c>
+      <c r="D12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12">
+        <v>1163007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="2">
+        <v>44522</v>
+      </c>
+      <c r="D13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13">
+        <v>157555</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="2">
+        <v>44522</v>
+      </c>
+      <c r="D14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14">
+        <v>917635</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44522</v>
+      </c>
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2">
+        <v>6662</v>
+      </c>
+      <c r="F2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="2">
+        <v>44484</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2">
+        <v>6565</v>
+      </c>
+      <c r="J2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44522</v>
+      </c>
+      <c r="D3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3">
+        <v>11049</v>
+      </c>
+      <c r="F3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="2">
+        <v>44484</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3">
+        <v>10884</v>
+      </c>
+      <c r="J3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44522</v>
+      </c>
+      <c r="D4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4">
+        <v>27102</v>
+      </c>
+      <c r="F4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="2">
+        <v>44484</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4">
+        <v>26581</v>
+      </c>
+      <c r="J4">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44522</v>
+      </c>
+      <c r="D5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5">
+        <v>3416</v>
+      </c>
+      <c r="F5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="2">
+        <v>44484</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5">
+        <v>3415</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44522</v>
+      </c>
+      <c r="D6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6">
+        <v>1480673</v>
+      </c>
+      <c r="F6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" s="2">
+        <v>44484</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6">
+        <v>1444341</v>
+      </c>
+      <c r="J6">
+        <v>36332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44522</v>
+      </c>
+      <c r="D7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7">
+        <v>537303</v>
+      </c>
+      <c r="F7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44484</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7">
+        <v>524485</v>
+      </c>
+      <c r="J7">
+        <v>12818</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44522</v>
+      </c>
+      <c r="D8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8">
+        <v>9960</v>
+      </c>
+      <c r="F8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="2">
+        <v>44484</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8">
+        <v>9688</v>
+      </c>
+      <c r="J8">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44522</v>
+      </c>
+      <c r="D10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10">
+        <v>262770</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="2">
+        <v>44484</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10">
+        <v>256399</v>
+      </c>
+      <c r="J10">
+        <v>6371</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44522</v>
+      </c>
+      <c r="D11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11">
+        <v>152352</v>
+      </c>
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="2">
+        <v>44484</v>
+      </c>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11">
+        <v>145979</v>
+      </c>
+      <c r="J11">
+        <v>6373</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44522</v>
+      </c>
+      <c r="D12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12">
+        <v>1163007</v>
+      </c>
+      <c r="F12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" s="2">
+        <v>44484</v>
+      </c>
+      <c r="H12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12">
+        <v>1148050</v>
+      </c>
+      <c r="J12">
+        <v>14957</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="2">
+        <v>44522</v>
+      </c>
+      <c r="D13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13">
+        <v>157555</v>
+      </c>
+      <c r="F13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="2">
+        <v>44484</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13">
+        <v>146179</v>
+      </c>
+      <c r="J13">
+        <v>11376</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="2">
+        <v>44522</v>
+      </c>
+      <c r="D14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14">
+        <v>917635</v>
+      </c>
+      <c r="F14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="2">
+        <v>44484</v>
+      </c>
+      <c r="H14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14">
+        <v>1669099</v>
+      </c>
+      <c r="J14">
+        <v>-751464</v>
       </c>
     </row>
   </sheetData>

--- a/allTest_allOrg.xlsx
+++ b/allTest_allOrg.xlsx
@@ -7,13 +7,13 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="insCountMax dev_adaugeopi" sheetId="1" r:id="rId1"/>
-    <sheet name="insCountMaxC dev_adaugeopi" sheetId="2" r:id="rId2"/>
-    <sheet name="dup check dev_adaugeopi" sheetId="3" r:id="rId3"/>
-    <sheet name="acoXdupMonth dev_adaugeopi" sheetId="4" r:id="rId4"/>
-    <sheet name="odsCountMax dev_adaugeopi" sheetId="5" r:id="rId5"/>
-    <sheet name="odsCountMaxC dev_adaugeopi" sheetId="6" r:id="rId6"/>
-    <sheet name="ccsCompare dev_adaugeopi" sheetId="7" r:id="rId7"/>
+    <sheet name="insCountMax prod_adaugeopi" sheetId="1" r:id="rId1"/>
+    <sheet name="insCountMaxC prod_adaugeopi" sheetId="2" r:id="rId2"/>
+    <sheet name="dup check prod_adaugeopi" sheetId="3" r:id="rId3"/>
+    <sheet name="acoXdupMonth prod_adaugeopi" sheetId="4" r:id="rId4"/>
+    <sheet name="odsCountMax prod_adaugeopi" sheetId="5" r:id="rId5"/>
+    <sheet name="odsCountMaxC prod_adaugeopi" sheetId="6" r:id="rId6"/>
+    <sheet name="ccsCompare prod_adaugeopi" sheetId="7" r:id="rId7"/>
     <sheet name="insCountMax prod_ilumedpi" sheetId="8" r:id="rId8"/>
     <sheet name="insCountMaxC prod_ilumedpi" sheetId="9" r:id="rId9"/>
     <sheet name="dup check prod_ilumedpi" sheetId="10" r:id="rId10"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="107">
   <si>
     <t>tableName</t>
   </si>
@@ -83,42 +83,45 @@
     <t>metric_value_operational_dashboard</t>
   </si>
   <si>
-    <t>DEV_ADAUGEOPI</t>
+    <t>PROD_ADAUGEOPI</t>
+  </si>
+  <si>
+    <t>m-2021-11</t>
+  </si>
+  <si>
+    <t>orgDBName_x</t>
+  </si>
+  <si>
+    <t>MaxLoadTS_x</t>
+  </si>
+  <si>
+    <t>MaxLP_x</t>
+  </si>
+  <si>
+    <t>rwCount_x</t>
+  </si>
+  <si>
+    <t>orgDBName_y</t>
+  </si>
+  <si>
+    <t>MaxLoadTS_y</t>
+  </si>
+  <si>
+    <t>MaxLP_y</t>
+  </si>
+  <si>
+    <t>rwCount_y</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>PROD_ADAUGEOPI_FE</t>
   </si>
   <si>
     <t>m-2021-09</t>
   </si>
   <si>
-    <t>orgDBName_x</t>
-  </si>
-  <si>
-    <t>MaxLoadTS_x</t>
-  </si>
-  <si>
-    <t>MaxLP_x</t>
-  </si>
-  <si>
-    <t>rwCount_x</t>
-  </si>
-  <si>
-    <t>orgDBName_y</t>
-  </si>
-  <si>
-    <t>MaxLoadTS_y</t>
-  </si>
-  <si>
-    <t>MaxLP_y</t>
-  </si>
-  <si>
-    <t>rwCount_y</t>
-  </si>
-  <si>
-    <t>diff</t>
-  </si>
-  <si>
-    <t>DEV_ADAUGEOPI_FE</t>
-  </si>
-  <si>
     <t>rowsEffected</t>
   </si>
   <si>
@@ -224,12 +227,15 @@
     <t>nh_network_model_0_hdr</t>
   </si>
   <si>
+    <t>2021-11</t>
+  </si>
+  <si>
+    <t>2021-07</t>
+  </si>
+  <si>
     <t>2021-09</t>
   </si>
   <si>
-    <t>2021-07</t>
-  </si>
-  <si>
     <t>MEASURE_ID</t>
   </si>
   <si>
@@ -341,13 +347,7 @@
     <t>PROD_ILUMEDPI</t>
   </si>
   <si>
-    <t>m-2021-11</t>
-  </si>
-  <si>
     <t>PROD_ILUMEDPI_FE</t>
-  </si>
-  <si>
-    <t>2021-11</t>
   </si>
 </sst>
 </file>
@@ -740,13 +740,13 @@
         <v>18</v>
       </c>
       <c r="C2" s="2">
-        <v>44483</v>
+        <v>44522</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
       </c>
       <c r="E2">
-        <v>4354</v>
+        <v>4406</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -757,13 +757,13 @@
         <v>18</v>
       </c>
       <c r="C3" s="2">
-        <v>44483</v>
+        <v>44522</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
       </c>
       <c r="E3">
-        <v>7835</v>
+        <v>7945</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -774,13 +774,13 @@
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>44483</v>
+        <v>44522</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4">
-        <v>22678</v>
+        <v>23151</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -791,7 +791,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="2">
-        <v>44483</v>
+        <v>44522</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
@@ -808,13 +808,13 @@
         <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>44483</v>
+        <v>44522</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
       </c>
       <c r="E6">
-        <v>1914067</v>
+        <v>1965646</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -825,13 +825,13 @@
         <v>18</v>
       </c>
       <c r="C7" s="2">
-        <v>44483</v>
+        <v>44522</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
       </c>
       <c r="E7">
-        <v>969468</v>
+        <v>995053</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -842,13 +842,13 @@
         <v>18</v>
       </c>
       <c r="C8" s="2">
-        <v>44483</v>
+        <v>44522</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
       </c>
       <c r="E8">
-        <v>5438</v>
+        <v>5633</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -870,13 +870,13 @@
         <v>18</v>
       </c>
       <c r="C10" s="2">
-        <v>44483</v>
+        <v>44522</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
       </c>
       <c r="E10">
-        <v>592217</v>
+        <v>607655</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -887,13 +887,13 @@
         <v>18</v>
       </c>
       <c r="C11" s="2">
-        <v>44483</v>
+        <v>44522</v>
       </c>
       <c r="D11" t="s">
         <v>19</v>
       </c>
       <c r="E11">
-        <v>318980</v>
+        <v>333126</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -904,13 +904,13 @@
         <v>18</v>
       </c>
       <c r="C12" s="2">
-        <v>44483</v>
+        <v>44522</v>
       </c>
       <c r="D12" t="s">
         <v>19</v>
       </c>
       <c r="E12">
-        <v>1977912</v>
+        <v>2010188</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -921,13 +921,13 @@
         <v>18</v>
       </c>
       <c r="C13" s="2">
-        <v>44483</v>
+        <v>44522</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
       </c>
       <c r="E13">
-        <v>335708</v>
+        <v>356499</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -938,13 +938,13 @@
         <v>18</v>
       </c>
       <c r="C14" s="2">
-        <v>44483</v>
+        <v>44522</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
       </c>
       <c r="E14">
-        <v>3400773</v>
+        <v>1891501</v>
       </c>
     </row>
   </sheetData>
@@ -968,10 +968,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -979,7 +979,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1045,7 +1045,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1067,7 +1067,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C10">
         <v>2036</v>
@@ -1081,7 +1081,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1092,7 +1092,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1135,22 +1135,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1185,16 +1185,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2">
         <v>44518</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="E2">
         <v>77</v>
@@ -1202,16 +1202,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C3" s="2">
         <v>44518</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="E3">
         <v>66556</v>
@@ -1219,16 +1219,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C4" s="2">
         <v>44518</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="E4">
         <v>725191</v>
@@ -1236,16 +1236,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2">
         <v>44518</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="E5">
         <v>5874</v>
@@ -1253,16 +1253,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2">
         <v>44518</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="E6">
         <v>416913</v>
@@ -1270,16 +1270,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C7" s="2">
         <v>44518</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="E7">
         <v>761861</v>
@@ -1287,16 +1287,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C8" s="2">
         <v>44518</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="E8">
         <v>43048</v>
@@ -1304,16 +1304,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C9" s="2">
         <v>44518</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="E9">
         <v>377619</v>
@@ -1321,16 +1321,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C10" s="2">
         <v>44518</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="E10">
         <v>24397</v>
@@ -1338,10 +1338,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1349,10 +1349,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1360,10 +1360,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1371,10 +1371,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1382,10 +1382,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1393,10 +1393,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1404,10 +1404,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1415,10 +1415,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1426,16 +1426,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C19" s="2">
         <v>44518</v>
       </c>
       <c r="D19" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="E19">
         <v>66556</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1454,16 +1454,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C21" s="2">
         <v>44518</v>
       </c>
       <c r="D21" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="E21">
         <v>761861</v>
@@ -1471,10 +1471,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1482,10 +1482,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1493,10 +1493,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1504,10 +1504,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1515,10 +1515,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1526,10 +1526,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1537,10 +1537,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1593,28 +1593,28 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2">
         <v>44518</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="E2">
         <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G2" s="2">
         <v>44474</v>
       </c>
       <c r="H2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I2">
         <v>66</v>
@@ -1625,28 +1625,28 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C3" s="2">
         <v>44518</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="E3">
         <v>66556</v>
       </c>
       <c r="F3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G3" s="2">
         <v>44474</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I3">
         <v>64899</v>
@@ -1657,28 +1657,28 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C4" s="2">
         <v>44518</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="E4">
         <v>725191</v>
       </c>
       <c r="F4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G4" s="2">
         <v>44474</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I4">
         <v>706197</v>
@@ -1689,28 +1689,28 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2">
         <v>44518</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="E5">
         <v>5874</v>
       </c>
       <c r="F5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G5" s="2">
         <v>44474</v>
       </c>
       <c r="H5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I5">
         <v>5726</v>
@@ -1721,28 +1721,28 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2">
         <v>44518</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="E6">
         <v>416913</v>
       </c>
       <c r="F6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G6" s="2">
         <v>44474</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I6">
         <v>406200</v>
@@ -1753,28 +1753,28 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C7" s="2">
         <v>44518</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="E7">
         <v>761861</v>
       </c>
       <c r="F7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G7" s="2">
         <v>44474</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I7">
         <v>741137</v>
@@ -1785,28 +1785,28 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C8" s="2">
         <v>44518</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="E8">
         <v>43048</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G8" s="2">
         <v>44474</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I8">
         <v>42078</v>
@@ -1817,28 +1817,28 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C9" s="2">
         <v>44518</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="E9">
         <v>377619</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G9" s="2">
         <v>44474</v>
       </c>
       <c r="H9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I9">
         <v>369389</v>
@@ -1849,28 +1849,28 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C10" s="2">
         <v>44518</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="E10">
         <v>24397</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G10" s="2">
         <v>44474</v>
       </c>
       <c r="H10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I10">
         <v>20997</v>
@@ -1881,16 +1881,16 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1901,16 +1901,16 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1921,16 +1921,16 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1941,16 +1941,16 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1961,16 +1961,16 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1981,16 +1981,16 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -2001,16 +2001,16 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -2021,16 +2021,16 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2041,28 +2041,28 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C19" s="2">
         <v>44518</v>
       </c>
       <c r="D19" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="E19">
         <v>66556</v>
       </c>
       <c r="F19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G19" s="2">
         <v>44474</v>
       </c>
       <c r="H19" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I19">
         <v>64899</v>
@@ -2073,16 +2073,16 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2093,28 +2093,28 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C21" s="2">
         <v>44518</v>
       </c>
       <c r="D21" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="E21">
         <v>761861</v>
       </c>
       <c r="F21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G21" s="2">
         <v>44474</v>
       </c>
       <c r="H21" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I21">
         <v>741137</v>
@@ -2125,16 +2125,16 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2145,16 +2145,16 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2165,16 +2165,16 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2185,16 +2185,16 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2205,16 +2205,16 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2225,16 +2225,16 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2245,16 +2245,16 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2278,13 +2278,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>28</v>
@@ -2292,7 +2292,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B2">
         <v>44696</v>
@@ -2306,7 +2306,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B3">
         <v>2220</v>
@@ -2320,7 +2320,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B4">
         <v>6623</v>
@@ -2334,7 +2334,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B5">
         <v>21386</v>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B6">
         <v>49136</v>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B7">
         <v>47027</v>
@@ -2376,7 +2376,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B8">
         <v>17390</v>
@@ -2390,7 +2390,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B9">
         <v>23347</v>
@@ -2404,7 +2404,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B10">
         <v>29304</v>
@@ -2418,7 +2418,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B11">
         <v>5106</v>
@@ -2432,7 +2432,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B12">
         <v>71558</v>
@@ -2446,7 +2446,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B13">
         <v>51393</v>
@@ -2460,7 +2460,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B14">
         <v>35890</v>
@@ -2474,7 +2474,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B15">
         <v>2738</v>
@@ -2488,7 +2488,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16">
         <v>37296</v>
@@ -2502,7 +2502,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B17">
         <v>46842</v>
@@ -2516,7 +2516,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B18">
         <v>999</v>
@@ -2530,7 +2530,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B19">
         <v>6771</v>
@@ -2544,7 +2544,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B20">
         <v>26529</v>
@@ -2558,7 +2558,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B21">
         <v>23680</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B22">
         <v>1702</v>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B23">
         <v>111259</v>
@@ -2600,7 +2600,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B24">
         <v>105339</v>
@@ -2614,7 +2614,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B25">
         <v>48211</v>
@@ -2628,7 +2628,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B26">
         <v>2627</v>
@@ -2642,7 +2642,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B27">
         <v>48026</v>
@@ -2656,7 +2656,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B28">
         <v>27528</v>
@@ -2670,7 +2670,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B29">
         <v>3441</v>
@@ -2684,7 +2684,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B30">
         <v>1702</v>
@@ -2698,7 +2698,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B31">
         <v>7326</v>
@@ -2712,7 +2712,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B32">
         <v>79328</v>
@@ -2726,7 +2726,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B33">
         <v>5883</v>
@@ -2740,7 +2740,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B34">
         <v>18352</v>
@@ -2805,22 +2805,28 @@
         <v>18</v>
       </c>
       <c r="C2" s="2">
-        <v>44483</v>
+        <v>44522</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
       </c>
       <c r="E2">
-        <v>4354</v>
+        <v>4406</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
       </c>
+      <c r="G2" s="2">
+        <v>44484</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
       <c r="I2">
-        <v>0</v>
+        <v>4354</v>
       </c>
       <c r="J2">
-        <v>4354</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2831,22 +2837,28 @@
         <v>18</v>
       </c>
       <c r="C3" s="2">
-        <v>44483</v>
+        <v>44522</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
       </c>
       <c r="E3">
-        <v>7835</v>
+        <v>7945</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
       </c>
+      <c r="G3" s="2">
+        <v>44484</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
       <c r="I3">
-        <v>0</v>
+        <v>7835</v>
       </c>
       <c r="J3">
-        <v>7835</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2857,22 +2869,28 @@
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>44483</v>
+        <v>44522</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4">
-        <v>22678</v>
+        <v>23151</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
+      <c r="G4" s="2">
+        <v>44484</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
       <c r="I4">
-        <v>0</v>
+        <v>22678</v>
       </c>
       <c r="J4">
-        <v>22678</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2883,7 +2901,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="2">
-        <v>44483</v>
+        <v>44522</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
@@ -2894,11 +2912,17 @@
       <c r="F5" t="s">
         <v>29</v>
       </c>
+      <c r="G5" s="2">
+        <v>44484</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
       <c r="I5">
-        <v>0</v>
+        <v>7458</v>
       </c>
       <c r="J5">
-        <v>7458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2909,22 +2933,28 @@
         <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>44483</v>
+        <v>44522</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
       </c>
       <c r="E6">
-        <v>1914067</v>
+        <v>1965646</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
       </c>
+      <c r="G6" s="2">
+        <v>44484</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
       <c r="I6">
-        <v>0</v>
+        <v>1914067</v>
       </c>
       <c r="J6">
-        <v>1914067</v>
+        <v>51579</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2935,22 +2965,28 @@
         <v>18</v>
       </c>
       <c r="C7" s="2">
-        <v>44483</v>
+        <v>44522</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
       </c>
       <c r="E7">
-        <v>969468</v>
+        <v>995053</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
       </c>
+      <c r="G7" s="2">
+        <v>44484</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
       <c r="I7">
-        <v>0</v>
+        <v>969468</v>
       </c>
       <c r="J7">
-        <v>969468</v>
+        <v>25585</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2961,22 +2997,28 @@
         <v>18</v>
       </c>
       <c r="C8" s="2">
-        <v>44483</v>
+        <v>44522</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
       </c>
       <c r="E8">
-        <v>5438</v>
+        <v>5633</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
       </c>
+      <c r="G8" s="2">
+        <v>44484</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
       <c r="I8">
-        <v>0</v>
+        <v>5438</v>
       </c>
       <c r="J8">
-        <v>5438</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3007,22 +3049,28 @@
         <v>18</v>
       </c>
       <c r="C10" s="2">
-        <v>44483</v>
+        <v>44522</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
       </c>
       <c r="E10">
-        <v>592217</v>
+        <v>607655</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
       </c>
+      <c r="G10" s="2">
+        <v>44484</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
       <c r="I10">
-        <v>0</v>
+        <v>592217</v>
       </c>
       <c r="J10">
-        <v>592217</v>
+        <v>15438</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3033,22 +3081,28 @@
         <v>18</v>
       </c>
       <c r="C11" s="2">
-        <v>44483</v>
+        <v>44522</v>
       </c>
       <c r="D11" t="s">
         <v>19</v>
       </c>
       <c r="E11">
-        <v>318980</v>
+        <v>333126</v>
       </c>
       <c r="F11" t="s">
         <v>29</v>
       </c>
+      <c r="G11" s="2">
+        <v>44484</v>
+      </c>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
       <c r="I11">
-        <v>0</v>
+        <v>318980</v>
       </c>
       <c r="J11">
-        <v>318980</v>
+        <v>14146</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3059,22 +3113,28 @@
         <v>18</v>
       </c>
       <c r="C12" s="2">
-        <v>44483</v>
+        <v>44522</v>
       </c>
       <c r="D12" t="s">
         <v>19</v>
       </c>
       <c r="E12">
-        <v>1977912</v>
+        <v>2010188</v>
       </c>
       <c r="F12" t="s">
         <v>29</v>
       </c>
+      <c r="G12" s="2">
+        <v>44484</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
       <c r="I12">
-        <v>0</v>
+        <v>1977912</v>
       </c>
       <c r="J12">
-        <v>1977912</v>
+        <v>32276</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3085,22 +3145,28 @@
         <v>18</v>
       </c>
       <c r="C13" s="2">
-        <v>44483</v>
+        <v>44522</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
       </c>
       <c r="E13">
-        <v>335708</v>
+        <v>356499</v>
       </c>
       <c r="F13" t="s">
         <v>29</v>
       </c>
+      <c r="G13" s="2">
+        <v>44484</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
       <c r="I13">
-        <v>0</v>
+        <v>335708</v>
       </c>
       <c r="J13">
-        <v>335708</v>
+        <v>20791</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3111,22 +3177,28 @@
         <v>18</v>
       </c>
       <c r="C14" s="2">
-        <v>44483</v>
+        <v>44522</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
       </c>
       <c r="E14">
-        <v>3400773</v>
+        <v>1891501</v>
       </c>
       <c r="F14" t="s">
         <v>29</v>
       </c>
+      <c r="G14" s="2">
+        <v>44484</v>
+      </c>
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
       <c r="I14">
-        <v>0</v>
+        <v>3400773</v>
       </c>
       <c r="J14">
-        <v>3400773</v>
+        <v>-1509272</v>
       </c>
     </row>
   </sheetData>
@@ -3150,10 +3222,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3314,22 +3386,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3364,160 +3436,160 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="2">
-        <v>44474</v>
+        <v>44518</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E2">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="2">
-        <v>44474</v>
+        <v>44518</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E3">
-        <v>92402</v>
+        <v>94917</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>44474</v>
+        <v>44518</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E4">
-        <v>593786</v>
+        <v>609428</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="2">
-        <v>44474</v>
+        <v>44518</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E5">
-        <v>7745</v>
+        <v>7936</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>44474</v>
+        <v>44518</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E6">
-        <v>395994</v>
+        <v>407285</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="2">
-        <v>44474</v>
+        <v>44518</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E7">
-        <v>1167223</v>
+        <v>1196979</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="2">
-        <v>44474</v>
+        <v>44518</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E8">
-        <v>74199</v>
+        <v>75903</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="2">
-        <v>44474</v>
+        <v>44518</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E9">
-        <v>514723</v>
+        <v>527105</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="2">
-        <v>44483</v>
+        <v>44518</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E10">
-        <v>51307</v>
+        <v>58379</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
@@ -3528,7 +3600,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
@@ -3539,7 +3611,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
@@ -3550,7 +3622,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
@@ -3561,7 +3633,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -3572,7 +3644,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -3583,7 +3655,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -3594,7 +3666,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -3605,24 +3677,24 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="2">
-        <v>44474</v>
+        <v>44518</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E19">
-        <v>92402</v>
+        <v>94917</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
@@ -3633,24 +3705,24 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="2">
-        <v>44474</v>
+        <v>44518</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E21">
-        <v>1167223</v>
+        <v>1196979</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
         <v>18</v>
@@ -3661,7 +3733,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
         <v>18</v>
@@ -3672,7 +3744,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
         <v>18</v>
@@ -3683,7 +3755,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
         <v>18</v>
@@ -3694,7 +3766,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
         <v>18</v>
@@ -3705,7 +3777,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
         <v>18</v>
@@ -3716,7 +3788,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s">
         <v>18</v>
@@ -3725,7 +3797,7 @@
         <v>44403</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -3778,241 +3850,295 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="2">
-        <v>44474</v>
+        <v>44518</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E2">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
       </c>
+      <c r="G2" s="2">
+        <v>44474</v>
+      </c>
+      <c r="H2" t="s">
+        <v>68</v>
+      </c>
       <c r="I2">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="J2">
-        <v>66</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="2">
-        <v>44474</v>
+        <v>44518</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E3">
-        <v>92402</v>
+        <v>94917</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
       </c>
+      <c r="G3" s="2">
+        <v>44474</v>
+      </c>
+      <c r="H3" t="s">
+        <v>68</v>
+      </c>
       <c r="I3">
-        <v>0</v>
+        <v>92402</v>
       </c>
       <c r="J3">
-        <v>92402</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>44474</v>
+        <v>44518</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E4">
-        <v>593786</v>
+        <v>609428</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
+      <c r="G4" s="2">
+        <v>44474</v>
+      </c>
+      <c r="H4" t="s">
+        <v>68</v>
+      </c>
       <c r="I4">
-        <v>0</v>
+        <v>593786</v>
       </c>
       <c r="J4">
-        <v>593786</v>
+        <v>15642</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="2">
-        <v>44474</v>
+        <v>44518</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E5">
-        <v>7745</v>
+        <v>7936</v>
       </c>
       <c r="F5" t="s">
         <v>29</v>
       </c>
+      <c r="G5" s="2">
+        <v>44474</v>
+      </c>
+      <c r="H5" t="s">
+        <v>68</v>
+      </c>
       <c r="I5">
-        <v>0</v>
+        <v>7745</v>
       </c>
       <c r="J5">
-        <v>7745</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>44474</v>
+        <v>44518</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E6">
-        <v>395994</v>
+        <v>407285</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
       </c>
+      <c r="G6" s="2">
+        <v>44474</v>
+      </c>
+      <c r="H6" t="s">
+        <v>68</v>
+      </c>
       <c r="I6">
-        <v>0</v>
+        <v>395994</v>
       </c>
       <c r="J6">
-        <v>395994</v>
+        <v>11291</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="2">
-        <v>44474</v>
+        <v>44518</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E7">
-        <v>1167223</v>
+        <v>1196979</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
       </c>
+      <c r="G7" s="2">
+        <v>44474</v>
+      </c>
+      <c r="H7" t="s">
+        <v>68</v>
+      </c>
       <c r="I7">
-        <v>0</v>
+        <v>1167223</v>
       </c>
       <c r="J7">
-        <v>1167223</v>
+        <v>29756</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="2">
-        <v>44474</v>
+        <v>44518</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E8">
-        <v>74199</v>
+        <v>75903</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
       </c>
+      <c r="G8" s="2">
+        <v>44474</v>
+      </c>
+      <c r="H8" t="s">
+        <v>68</v>
+      </c>
       <c r="I8">
-        <v>0</v>
+        <v>74199</v>
       </c>
       <c r="J8">
-        <v>74199</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="2">
-        <v>44474</v>
+        <v>44518</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E9">
-        <v>514723</v>
+        <v>527105</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
       </c>
+      <c r="G9" s="2">
+        <v>44474</v>
+      </c>
+      <c r="H9" t="s">
+        <v>68</v>
+      </c>
       <c r="I9">
-        <v>0</v>
+        <v>514723</v>
       </c>
       <c r="J9">
-        <v>514723</v>
+        <v>12382</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="2">
-        <v>44483</v>
+        <v>44518</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E10">
-        <v>51307</v>
+        <v>58379</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
       </c>
+      <c r="G10" s="2">
+        <v>44483</v>
+      </c>
+      <c r="H10" t="s">
+        <v>68</v>
+      </c>
       <c r="I10">
-        <v>0</v>
+        <v>51307</v>
       </c>
       <c r="J10">
-        <v>51307</v>
+        <v>7072</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
@@ -4032,7 +4158,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
@@ -4052,7 +4178,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
@@ -4072,7 +4198,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
@@ -4092,7 +4218,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -4112,7 +4238,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -4132,7 +4258,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -4152,7 +4278,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -4172,33 +4298,39 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="2">
-        <v>44474</v>
+        <v>44518</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E19">
-        <v>92402</v>
+        <v>94917</v>
       </c>
       <c r="F19" t="s">
         <v>29</v>
       </c>
+      <c r="G19" s="2">
+        <v>44474</v>
+      </c>
+      <c r="H19" t="s">
+        <v>68</v>
+      </c>
       <c r="I19">
-        <v>0</v>
+        <v>92402</v>
       </c>
       <c r="J19">
-        <v>92402</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
@@ -4218,33 +4350,39 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="2">
-        <v>44474</v>
+        <v>44518</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E21">
-        <v>1167223</v>
+        <v>1196979</v>
       </c>
       <c r="F21" t="s">
         <v>29</v>
       </c>
+      <c r="G21" s="2">
+        <v>44474</v>
+      </c>
+      <c r="H21" t="s">
+        <v>68</v>
+      </c>
       <c r="I21">
-        <v>0</v>
+        <v>1167223</v>
       </c>
       <c r="J21">
-        <v>1167223</v>
+        <v>29756</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
         <v>18</v>
@@ -4264,7 +4402,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
         <v>18</v>
@@ -4284,7 +4422,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
         <v>18</v>
@@ -4304,7 +4442,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
         <v>18</v>
@@ -4324,7 +4462,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
         <v>18</v>
@@ -4344,7 +4482,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
         <v>18</v>
@@ -4364,7 +4502,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s">
         <v>18</v>
@@ -4373,7 +4511,7 @@
         <v>44403</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -4381,11 +4519,17 @@
       <c r="F28" t="s">
         <v>29</v>
       </c>
+      <c r="G28" s="2">
+        <v>44403</v>
+      </c>
+      <c r="H28" t="s">
+        <v>67</v>
+      </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4403,13 +4547,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>28</v>
@@ -4417,266 +4561,464 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B2">
+        <v>80586</v>
+      </c>
+      <c r="C2">
         <v>80142</v>
+      </c>
+      <c r="D2">
+        <v>444</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B3">
+        <v>3552</v>
+      </c>
+      <c r="C3">
         <v>3441</v>
+      </c>
+      <c r="D3">
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B4">
+        <v>6068</v>
+      </c>
+      <c r="C4">
         <v>6031</v>
+      </c>
+      <c r="D4">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B5">
+        <v>18759</v>
+      </c>
+      <c r="C5">
         <v>18426</v>
+      </c>
+      <c r="D5">
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B6">
+        <v>58090</v>
+      </c>
+      <c r="C6">
         <v>56906</v>
+      </c>
+      <c r="D6">
+        <v>1184</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B7">
+        <v>63751</v>
+      </c>
+      <c r="C7">
         <v>62974</v>
+      </c>
+      <c r="D7">
+        <v>777</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B8">
+        <v>36852</v>
+      </c>
+      <c r="C8">
         <v>36519</v>
+      </c>
+      <c r="D8">
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B9">
+        <v>37333</v>
+      </c>
+      <c r="C9">
         <v>36519</v>
+      </c>
+      <c r="D9">
+        <v>814</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B10">
+        <v>52429</v>
+      </c>
+      <c r="C10">
         <v>51985</v>
+      </c>
+      <c r="D10">
+        <v>444</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B11">
         <v>9176</v>
       </c>
+      <c r="C11">
+        <v>9176</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B12">
+        <v>174455</v>
+      </c>
+      <c r="C12">
         <v>173012</v>
+      </c>
+      <c r="D12">
+        <v>1443</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B13">
+        <v>77700</v>
+      </c>
+      <c r="C13">
         <v>76664</v>
+      </c>
+      <c r="D13">
+        <v>1036</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B14">
+        <v>40552</v>
+      </c>
+      <c r="C14">
         <v>39997</v>
+      </c>
+      <c r="D14">
+        <v>555</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B15">
+        <v>4921</v>
+      </c>
+      <c r="C15">
         <v>4810</v>
+      </c>
+      <c r="D15">
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16">
+        <v>66415</v>
+      </c>
+      <c r="C16">
         <v>65601</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="D16">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B17">
+        <v>60865</v>
+      </c>
+      <c r="C17">
         <v>60754</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="D17">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B18">
         <v>2294</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>2294</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B19">
+        <v>16317</v>
+      </c>
+      <c r="C19">
         <v>16243</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="D19">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B20">
+        <v>54871</v>
+      </c>
+      <c r="C20">
         <v>54427</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="D20">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B21">
+        <v>29156</v>
+      </c>
+      <c r="C21">
         <v>28305</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="D21">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B22">
         <v>3145</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22">
+        <v>3145</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B23">
+        <v>184556</v>
+      </c>
+      <c r="C23">
         <v>183150</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="D23">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B24">
+        <v>188219</v>
+      </c>
+      <c r="C24">
         <v>187035</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="D24">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B25">
+        <v>64454</v>
+      </c>
+      <c r="C25">
         <v>63492</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="D25">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B26">
+        <v>2627</v>
+      </c>
+      <c r="C26">
         <v>2590</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="D26">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B27">
+        <v>61716</v>
+      </c>
+      <c r="C27">
         <v>60643</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="D27">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B28">
+        <v>57017</v>
+      </c>
+      <c r="C28">
         <v>56240</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="D28">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B29">
+        <v>5846</v>
+      </c>
+      <c r="C29">
         <v>5735</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="D29">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B30">
+        <v>6660</v>
+      </c>
+      <c r="C30">
         <v>6586</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="D30">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B31">
+        <v>15799</v>
+      </c>
+      <c r="C31">
         <v>15688</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="D31">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B32">
+        <v>163133</v>
+      </c>
+      <c r="C32">
         <v>161616</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="D32">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B33">
+        <v>3441</v>
+      </c>
+      <c r="C33">
         <v>3367</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="D33">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B34">
+        <v>26307</v>
+      </c>
+      <c r="C34">
         <v>25419</v>
+      </c>
+      <c r="D34">
+        <v>888</v>
       </c>
     </row>
   </sheetData>
@@ -4714,13 +5056,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2">
         <v>44522</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>6662</v>
@@ -4731,13 +5073,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C3" s="2">
         <v>44522</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>11049</v>
@@ -4748,13 +5090,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C4" s="2">
         <v>44522</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>27102</v>
@@ -4765,13 +5107,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2">
         <v>44522</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>3416</v>
@@ -4782,13 +5124,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2">
         <v>44522</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>1480673</v>
@@ -4799,13 +5141,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C7" s="2">
         <v>44522</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>537303</v>
@@ -4816,13 +5158,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C8" s="2">
         <v>44522</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>9960</v>
@@ -4833,7 +5175,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4844,13 +5186,13 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C10" s="2">
         <v>44522</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>262770</v>
@@ -4861,13 +5203,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C11" s="2">
         <v>44522</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>152352</v>
@@ -4878,13 +5220,13 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C12" s="2">
         <v>44522</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>1163007</v>
@@ -4895,13 +5237,13 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C13" s="2">
         <v>44522</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>157555</v>
@@ -4912,13 +5254,13 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C14" s="2">
         <v>44522</v>
       </c>
       <c r="D14" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>917635</v>
@@ -4974,25 +5316,25 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2">
         <v>44522</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>6662</v>
       </c>
       <c r="F2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G2" s="2">
         <v>44484</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I2">
         <v>6565</v>
@@ -5006,25 +5348,25 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C3" s="2">
         <v>44522</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>11049</v>
       </c>
       <c r="F3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G3" s="2">
         <v>44484</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I3">
         <v>10884</v>
@@ -5038,25 +5380,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C4" s="2">
         <v>44522</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>27102</v>
       </c>
       <c r="F4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G4" s="2">
         <v>44484</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I4">
         <v>26581</v>
@@ -5070,25 +5412,25 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2">
         <v>44522</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>3416</v>
       </c>
       <c r="F5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G5" s="2">
         <v>44484</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I5">
         <v>3415</v>
@@ -5102,25 +5444,25 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2">
         <v>44522</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>1480673</v>
       </c>
       <c r="F6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G6" s="2">
         <v>44484</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I6">
         <v>1444341</v>
@@ -5134,25 +5476,25 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C7" s="2">
         <v>44522</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>537303</v>
       </c>
       <c r="F7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G7" s="2">
         <v>44484</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I7">
         <v>524485</v>
@@ -5166,25 +5508,25 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C8" s="2">
         <v>44522</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>9960</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G8" s="2">
         <v>44484</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I8">
         <v>9688</v>
@@ -5198,13 +5540,13 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -5218,25 +5560,25 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C10" s="2">
         <v>44522</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>262770</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G10" s="2">
         <v>44484</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I10">
         <v>256399</v>
@@ -5250,25 +5592,25 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C11" s="2">
         <v>44522</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>152352</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G11" s="2">
         <v>44484</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I11">
         <v>145979</v>
@@ -5282,25 +5624,25 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C12" s="2">
         <v>44522</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>1163007</v>
       </c>
       <c r="F12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G12" s="2">
         <v>44484</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I12">
         <v>1148050</v>
@@ -5314,25 +5656,25 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C13" s="2">
         <v>44522</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>157555</v>
       </c>
       <c r="F13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G13" s="2">
         <v>44484</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I13">
         <v>146179</v>
@@ -5346,25 +5688,25 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C14" s="2">
         <v>44522</v>
       </c>
       <c r="D14" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>917635</v>
       </c>
       <c r="F14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G14" s="2">
         <v>44484</v>
       </c>
       <c r="H14" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I14">
         <v>1669099</v>

--- a/allTest_allOrg.xlsx
+++ b/allTest_allOrg.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="107">
   <si>
     <t>tableName</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>profile_list_patient</t>
+  </si>
+  <si>
+    <t>metric_value_patient_x_claim</t>
   </si>
   <si>
     <t>PROD_CARELINEPI</t>
@@ -699,7 +702,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -727,13 +730,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2">
         <v>44523</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>2647</v>
@@ -744,13 +747,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2">
         <v>44523</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>4886</v>
@@ -761,13 +764,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2">
         <v>44523</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>14479</v>
@@ -778,13 +781,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2">
         <v>44523</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1201</v>
@@ -795,13 +798,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
         <v>44523</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>768689</v>
@@ -812,13 +815,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2">
         <v>44523</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>261512</v>
@@ -829,13 +832,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>44523</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>11618</v>
@@ -846,7 +849,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -857,13 +860,13 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2">
         <v>44523</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>74860</v>
@@ -874,13 +877,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2">
         <v>44523</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>55137</v>
@@ -891,13 +894,13 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2">
         <v>44523</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>503244</v>
@@ -908,13 +911,13 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2">
         <v>44523</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>50316</v>
@@ -925,13 +928,13 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2">
         <v>44523</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>1173342</v>
@@ -942,16 +945,33 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" s="2">
         <v>44523</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>149720</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="2">
+        <v>44523</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>1616726</v>
       </c>
     </row>
   </sheetData>
@@ -961,7 +981,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -972,31 +992,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1004,25 +1024,25 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2">
         <v>44523</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>2647</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2">
         <v>44461</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I2">
         <v>2325</v>
@@ -1036,25 +1056,25 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2">
         <v>44523</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>4886</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G3" s="2">
         <v>44461</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I3">
         <v>4293</v>
@@ -1068,25 +1088,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2">
         <v>44523</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>14479</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G4" s="2">
         <v>44461</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4">
         <v>12580</v>
@@ -1100,25 +1120,25 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2">
         <v>44523</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1201</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G5" s="2">
         <v>44461</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I5">
         <v>1045</v>
@@ -1132,25 +1152,25 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
         <v>44523</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>768689</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" s="2">
         <v>44461</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I6">
         <v>628041</v>
@@ -1164,25 +1184,25 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2">
         <v>44523</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>261512</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G7" s="2">
         <v>44461</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I7">
         <v>214723</v>
@@ -1196,25 +1216,25 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>44523</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>11618</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G8" s="2">
         <v>44461</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I8">
         <v>9254</v>
@@ -1228,13 +1248,13 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1248,25 +1268,25 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2">
         <v>44523</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>74860</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G10" s="2">
         <v>44461</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I10">
         <v>65923</v>
@@ -1280,25 +1300,25 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2">
         <v>44523</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>55137</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G11" s="2">
         <v>44461</v>
       </c>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I11">
         <v>44174</v>
@@ -1312,25 +1332,25 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2">
         <v>44523</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>503244</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G12" s="2">
         <v>44461</v>
       </c>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I12">
         <v>423646</v>
@@ -1344,25 +1364,25 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2">
         <v>44523</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>50316</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G13" s="2">
         <v>44461</v>
       </c>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I13">
         <v>50316</v>
@@ -1376,25 +1396,25 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2">
         <v>44523</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>1173342</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G14" s="2">
         <v>44461</v>
       </c>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I14">
         <v>1051855</v>
@@ -1408,31 +1428,63 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" s="2">
         <v>44523</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>149720</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G15" s="2">
         <v>44461</v>
       </c>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I15">
         <v>131846</v>
       </c>
       <c r="J15">
         <v>17874</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="2">
+        <v>44523</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>1616726</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="2">
+        <v>44461</v>
+      </c>
+      <c r="H16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16">
+        <v>1427342</v>
+      </c>
+      <c r="J16">
+        <v>189384</v>
       </c>
     </row>
   </sheetData>
@@ -1442,7 +1494,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1456,10 +1508,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1467,7 +1519,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1478,7 +1530,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1489,7 +1541,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1500,7 +1552,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1511,7 +1563,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1522,7 +1574,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1533,7 +1585,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1544,7 +1596,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1555,7 +1607,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>96</v>
@@ -1569,7 +1621,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>8</v>
@@ -1583,7 +1635,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -1597,7 +1649,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1608,7 +1660,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1619,13 +1671,27 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>192</v>
       </c>
       <c r="D15">
         <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>2160</v>
+      </c>
+      <c r="D16">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1643,22 +1709,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1693,16 +1759,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2">
         <v>44518</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E2">
         <v>253</v>
@@ -1710,16 +1776,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2">
         <v>44518</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E3">
         <v>60694</v>
@@ -1727,16 +1793,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2">
         <v>44518</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E4">
         <v>425876</v>
@@ -1744,16 +1810,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2">
         <v>44518</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E5">
         <v>3072</v>
@@ -1761,16 +1827,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
         <v>44518</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E6">
         <v>374747</v>
@@ -1778,16 +1844,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2">
         <v>44518</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E7">
         <v>260015</v>
@@ -1795,16 +1861,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>44518</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E8">
         <v>32050</v>
@@ -1812,16 +1878,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2">
         <v>44518</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E9">
         <v>265753</v>
@@ -1829,16 +1895,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2">
         <v>44518</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E10">
         <v>24393</v>
@@ -1846,10 +1912,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1857,10 +1923,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1868,10 +1934,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1879,10 +1945,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1890,10 +1956,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1901,10 +1967,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1912,10 +1978,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1923,10 +1989,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1934,16 +2000,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" s="2">
         <v>44518</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E19">
         <v>103712</v>
@@ -1951,10 +2017,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1962,16 +2028,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" s="2">
         <v>44518</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E21">
         <v>257457</v>
@@ -1979,10 +2045,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1990,10 +2056,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2001,10 +2067,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2012,10 +2078,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2023,10 +2089,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2034,10 +2100,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2045,10 +2111,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2056,16 +2122,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C29" s="2">
         <v>44517</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E29">
         <v>3156</v>
@@ -2089,51 +2155,51 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2">
         <v>44518</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E2">
         <v>253</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -2144,22 +2210,22 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2">
         <v>44518</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E3">
         <v>60694</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -2170,22 +2236,22 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2">
         <v>44518</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E4">
         <v>425876</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -2196,22 +2262,22 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2">
         <v>44518</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E5">
         <v>3072</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -2222,22 +2288,22 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
         <v>44518</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E6">
         <v>374747</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -2248,22 +2314,22 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2">
         <v>44518</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E7">
         <v>260015</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2274,22 +2340,22 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>44518</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E8">
         <v>32050</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2300,22 +2366,22 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2">
         <v>44518</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E9">
         <v>265753</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2326,22 +2392,22 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2">
         <v>44518</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E10">
         <v>24393</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2352,16 +2418,16 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2372,16 +2438,16 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -2392,16 +2458,16 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -2412,16 +2478,16 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -2432,16 +2498,16 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -2452,16 +2518,16 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -2472,16 +2538,16 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -2492,16 +2558,16 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2512,22 +2578,22 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" s="2">
         <v>44518</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E19">
         <v>103712</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2538,16 +2604,16 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2558,22 +2624,22 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" s="2">
         <v>44518</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E21">
         <v>257457</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2584,16 +2650,16 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2604,16 +2670,16 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2624,16 +2690,16 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2644,16 +2710,16 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2664,16 +2730,16 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2684,16 +2750,16 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2704,16 +2770,16 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2724,22 +2790,22 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C29" s="2">
         <v>44517</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E29">
         <v>3156</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -2763,21 +2829,21 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B2">
         <v>16391</v>
@@ -2791,7 +2857,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B3">
         <v>1591</v>
@@ -2805,7 +2871,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B4">
         <v>16687</v>
@@ -2819,7 +2885,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B5">
         <v>29304</v>
@@ -2833,7 +2899,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B6">
         <v>24605</v>
@@ -2847,7 +2913,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B7">
         <v>27047</v>
@@ -2861,7 +2927,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B8">
         <v>4625</v>
@@ -2875,7 +2941,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B9">
         <v>11322</v>
@@ -2889,7 +2955,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B10">
         <v>6771</v>
@@ -2903,7 +2969,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B11">
         <v>5883</v>
@@ -2917,7 +2983,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B12">
         <v>17279</v>
@@ -2931,7 +2997,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B13">
         <v>22607</v>
@@ -2945,7 +3011,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B14">
         <v>16354</v>
@@ -2959,7 +3025,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B15">
         <v>1332</v>
@@ -2973,7 +3039,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B16">
         <v>28490</v>
@@ -2987,7 +3053,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B17">
         <v>16132</v>
@@ -3001,7 +3067,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B18">
         <v>444</v>
@@ -3015,7 +3081,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B19">
         <v>2220</v>
@@ -3029,7 +3095,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B20">
         <v>6179</v>
@@ -3043,7 +3109,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B21">
         <v>15614</v>
@@ -3057,7 +3123,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B22">
         <v>3256</v>
@@ -3071,7 +3137,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B23">
         <v>29563</v>
@@ -3085,7 +3151,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B24">
         <v>40108</v>
@@ -3099,7 +3165,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B25">
         <v>18167</v>
@@ -3113,7 +3179,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B26">
         <v>555</v>
@@ -3127,7 +3193,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B27">
         <v>11988</v>
@@ -3141,7 +3207,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B28">
         <v>9953</v>
@@ -3155,7 +3221,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B29">
         <v>11840</v>
@@ -3169,7 +3235,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B30">
         <v>1406</v>
@@ -3183,7 +3249,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B31">
         <v>1665</v>
@@ -3197,7 +3263,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B32">
         <v>30636</v>
@@ -3211,7 +3277,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B33">
         <v>8325</v>
@@ -3225,7 +3291,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B34">
         <v>9768</v>
